--- a/網路商城_2022_02月統計表.xlsx
+++ b/網路商城_2022_02月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2220" windowWidth="15600" windowHeight="7740" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="2310" windowWidth="15600" windowHeight="7650" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="208">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,6 +795,38 @@
   </si>
   <si>
     <t>番茄肉醬義大利麵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥燉排骨</t>
+  </si>
+  <si>
+    <t>藥燉排骨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒小子肉乾</t>
+  </si>
+  <si>
+    <t>棒小子肉乾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>千層塔塔酥餅_紅豆</t>
+  </si>
+  <si>
+    <t>千層塔塔酥餅_紅豆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>千層塔塔酥餅_芋頭</t>
+  </si>
+  <si>
+    <t>千層塔塔酥餅_芋頭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊梅金山</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1465,7 +1497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1898,6 +1930,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2103,11 +2138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134226432"/>
-        <c:axId val="132989504"/>
+        <c:axId val="140026368"/>
+        <c:axId val="143681792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134226432"/>
+        <c:axId val="140026368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2164,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132989504"/>
+        <c:crossAx val="143681792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2137,7 +2172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132989504"/>
+        <c:axId val="143681792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2196,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134226432"/>
+        <c:crossAx val="140026368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2538,11 +2573,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143667712"/>
-        <c:axId val="143668288"/>
+        <c:axId val="145676480"/>
+        <c:axId val="145677056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143667712"/>
+        <c:axId val="145676480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,12 +2621,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143668288"/>
+        <c:crossAx val="145677056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143668288"/>
+        <c:axId val="145677056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2678,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143667712"/>
+        <c:crossAx val="145676480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2840,11 +2875,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="141867008"/>
-        <c:axId val="144130048"/>
+        <c:axId val="143906816"/>
+        <c:axId val="183256768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141867008"/>
+        <c:axId val="143906816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +2901,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144130048"/>
+        <c:crossAx val="183256768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2874,7 +2909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144130048"/>
+        <c:axId val="183256768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2919,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141867008"/>
+        <c:crossAx val="143906816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3097,11 +3132,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="143801856"/>
-        <c:axId val="144131776"/>
+        <c:axId val="144936448"/>
+        <c:axId val="183258496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143801856"/>
+        <c:axId val="144936448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3158,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144131776"/>
+        <c:crossAx val="183258496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3131,7 +3166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144131776"/>
+        <c:axId val="183258496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,7 +3176,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143801856"/>
+        <c:crossAx val="144936448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3545,11 +3580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144133504"/>
-        <c:axId val="144134080"/>
+        <c:axId val="183260224"/>
+        <c:axId val="183260800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144133504"/>
+        <c:axId val="183260224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,12 +3628,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144134080"/>
+        <c:crossAx val="183260800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144134080"/>
+        <c:axId val="183260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,7 +3685,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144133504"/>
+        <c:crossAx val="183260224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3958,11 +3993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="132991808"/>
-        <c:axId val="132992384"/>
+        <c:axId val="143684096"/>
+        <c:axId val="143684672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="132991808"/>
+        <c:axId val="143684096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,12 +4068,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132992384"/>
+        <c:crossAx val="143684672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132992384"/>
+        <c:axId val="143684672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +4140,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132991808"/>
+        <c:crossAx val="143684096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4441,11 +4476,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="139929088"/>
-        <c:axId val="132994112"/>
+        <c:axId val="149218304"/>
+        <c:axId val="143686400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139929088"/>
+        <c:axId val="149218304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,7 +4502,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132994112"/>
+        <c:crossAx val="143686400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4475,7 +4510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132994112"/>
+        <c:axId val="143686400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,7 +4520,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139929088"/>
+        <c:crossAx val="149218304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4768,8 +4803,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141766656"/>
-        <c:axId val="88188608"/>
+        <c:axId val="142000128"/>
+        <c:axId val="144130624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4895,11 +4930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141767168"/>
-        <c:axId val="132995840"/>
+        <c:axId val="142000640"/>
+        <c:axId val="144131200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141766656"/>
+        <c:axId val="142000128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4921,7 +4956,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88188608"/>
+        <c:crossAx val="144130624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4929,7 +4964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88188608"/>
+        <c:axId val="144130624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4953,13 +4988,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141766656"/>
+        <c:crossAx val="142000128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132995840"/>
+        <c:axId val="144131200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4982,13 +5017,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141767168"/>
+        <c:crossAx val="142000640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141767168"/>
+        <c:axId val="142000640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4997,7 +5032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132995840"/>
+        <c:crossAx val="144131200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5282,8 +5317,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141770240"/>
-        <c:axId val="138913472"/>
+        <c:axId val="142003712"/>
+        <c:axId val="144134080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5444,11 +5479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141768704"/>
-        <c:axId val="138912896"/>
+        <c:axId val="142002176"/>
+        <c:axId val="144133504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141768704"/>
+        <c:axId val="142002176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5470,7 +5505,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138912896"/>
+        <c:crossAx val="144133504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5478,7 +5513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138912896"/>
+        <c:axId val="144133504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,12 +5537,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141768704"/>
+        <c:crossAx val="142002176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138913472"/>
+        <c:axId val="144134080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,12 +5565,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141770240"/>
+        <c:crossAx val="142003712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="141770240"/>
+        <c:axId val="142003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5544,7 +5579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138913472"/>
+        <c:crossAx val="144134080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5784,11 +5819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141865472"/>
-        <c:axId val="138915776"/>
+        <c:axId val="143905280"/>
+        <c:axId val="144136384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141865472"/>
+        <c:axId val="143905280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5810,7 +5845,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138915776"/>
+        <c:crossAx val="144136384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5818,7 +5853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138915776"/>
+        <c:axId val="144136384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5842,7 +5877,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141865472"/>
+        <c:crossAx val="143905280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6006,11 +6041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="141868544"/>
-        <c:axId val="138917504"/>
+        <c:axId val="143908352"/>
+        <c:axId val="145670144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="141868544"/>
+        <c:axId val="143908352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6033,7 +6068,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138917504"/>
+        <c:crossAx val="145670144"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6042,7 +6077,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="138917504"/>
+        <c:axId val="145670144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6067,7 +6102,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141868544"/>
+        <c:crossAx val="143908352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6275,11 +6310,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="143966208"/>
-        <c:axId val="143663104"/>
+        <c:axId val="144101376"/>
+        <c:axId val="145672448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143966208"/>
+        <c:axId val="144101376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6301,7 +6336,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143663104"/>
+        <c:crossAx val="145672448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6309,7 +6344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143663104"/>
+        <c:axId val="145672448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6319,7 +6354,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143966208"/>
+        <c:crossAx val="144101376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6532,11 +6567,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="143798272"/>
-        <c:axId val="143665984"/>
+        <c:axId val="144104960"/>
+        <c:axId val="145674752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143798272"/>
+        <c:axId val="144104960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,7 +6593,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143665984"/>
+        <c:crossAx val="145674752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6566,7 +6601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143665984"/>
+        <c:axId val="145674752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,7 +6611,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143798272"/>
+        <c:crossAx val="144104960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9310,8 +9345,8 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9417,14 +9452,14 @@
         <v>55</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H41" si="0">F3-E3</f>
+        <f t="shared" ref="H3:H66" si="0">F3-E3</f>
         <v>11</v>
       </c>
       <c r="I3" s="5">
         <v>4</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J41" si="1">F3*I3</f>
+        <f t="shared" ref="J3:J66" si="1">F3*I3</f>
         <v>180</v>
       </c>
     </row>
@@ -10665,484 +10700,1304 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="104"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="A42" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="108">
+        <v>40</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="5">
+        <v>120</v>
+      </c>
+      <c r="F42" s="5">
+        <v>160</v>
+      </c>
+      <c r="G42" s="5">
+        <v>200</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="104"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="A43" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="108">
+        <v>40</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="5">
+        <v>120</v>
+      </c>
+      <c r="F43" s="5">
+        <v>176</v>
+      </c>
+      <c r="G43" s="5">
+        <v>199</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="104"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="A44" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="108">
+        <v>40</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="5">
+        <v>52</v>
+      </c>
+      <c r="F44" s="5">
+        <v>63</v>
+      </c>
+      <c r="G44" s="5">
+        <v>75</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="104"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="A45" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="108">
+        <v>40</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="5">
+        <v>52</v>
+      </c>
+      <c r="F45" s="5">
+        <v>63</v>
+      </c>
+      <c r="G45" s="5">
+        <v>75</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I45" s="5">
+        <v>2</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="104"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="A46" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="108">
+        <v>77</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="5">
+        <v>120</v>
+      </c>
+      <c r="F46" s="5">
+        <v>160</v>
+      </c>
+      <c r="G46" s="5">
+        <v>200</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I46" s="5">
+        <v>2</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="104"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="A47" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="108">
+        <v>77</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="5">
+        <v>120</v>
+      </c>
+      <c r="F47" s="5">
+        <v>176</v>
+      </c>
+      <c r="G47" s="5">
+        <v>199</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I47" s="5">
+        <v>2</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="104"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="A48" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="108">
+        <v>77</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="5">
+        <v>52</v>
+      </c>
+      <c r="F48" s="5">
+        <v>63</v>
+      </c>
+      <c r="G48" s="5">
+        <v>75</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="104"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="A49" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="108">
+        <v>77</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="5">
+        <v>52</v>
+      </c>
+      <c r="F49" s="5">
+        <v>63</v>
+      </c>
+      <c r="G49" s="5">
+        <v>75</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="A50" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="108">
+        <v>53</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="5">
+        <v>120</v>
+      </c>
+      <c r="F50" s="5">
+        <v>160</v>
+      </c>
+      <c r="G50" s="5">
+        <v>200</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="104"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="A51" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="108">
+        <v>53</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="5">
+        <v>120</v>
+      </c>
+      <c r="F51" s="5">
+        <v>176</v>
+      </c>
+      <c r="G51" s="5">
+        <v>199</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="A52" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="108">
+        <v>53</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="5">
+        <v>52</v>
+      </c>
+      <c r="F52" s="5">
+        <v>63</v>
+      </c>
+      <c r="G52" s="5">
+        <v>75</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="J52" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="104"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="A53" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="108">
+        <v>53</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="5">
+        <v>52</v>
+      </c>
+      <c r="F53" s="5">
+        <v>63</v>
+      </c>
+      <c r="G53" s="5">
+        <v>75</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="104"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="A54" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B54" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="108">
+        <v>95</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="5">
+        <v>120</v>
+      </c>
+      <c r="F54" s="5">
+        <v>160</v>
+      </c>
+      <c r="G54" s="5">
+        <v>200</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="J54" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="104"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="A55" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B55" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="108">
+        <v>95</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="5">
+        <v>120</v>
+      </c>
+      <c r="F55" s="5">
+        <v>176</v>
+      </c>
+      <c r="G55" s="5">
+        <v>199</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="104"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="A56" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B56" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="108">
+        <v>95</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="5">
+        <v>52</v>
+      </c>
+      <c r="F56" s="5">
+        <v>63</v>
+      </c>
+      <c r="G56" s="5">
+        <v>75</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="104"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="A57" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B57" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="108">
+        <v>95</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="5">
+        <v>52</v>
+      </c>
+      <c r="F57" s="5">
+        <v>63</v>
+      </c>
+      <c r="G57" s="5">
+        <v>75</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="104"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="A58" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B58" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="108">
+        <v>50</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="5">
+        <v>120</v>
+      </c>
+      <c r="F58" s="5">
+        <v>160</v>
+      </c>
+      <c r="G58" s="5">
+        <v>200</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="J58" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="104"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="A59" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B59" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="108">
+        <v>50</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="5">
+        <v>120</v>
+      </c>
+      <c r="F59" s="5">
+        <v>176</v>
+      </c>
+      <c r="G59" s="5">
+        <v>199</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="J59" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="104"/>
-      <c r="B60" s="108"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+      <c r="A60" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B60" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="108">
+        <v>50</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="5">
+        <v>52</v>
+      </c>
+      <c r="F60" s="5">
+        <v>63</v>
+      </c>
+      <c r="G60" s="5">
+        <v>75</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="J60" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="104"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="A61" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B61" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="108">
+        <v>50</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="5">
+        <v>52</v>
+      </c>
+      <c r="F61" s="5">
+        <v>63</v>
+      </c>
+      <c r="G61" s="5">
+        <v>75</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="J61" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="104"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="A62" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B62" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="108">
+        <v>33</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="5">
+        <v>120</v>
+      </c>
+      <c r="F62" s="5">
+        <v>160</v>
+      </c>
+      <c r="G62" s="5">
+        <v>200</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="J62" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="104"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="A63" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B63" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="108">
+        <v>33</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="5">
+        <v>120</v>
+      </c>
+      <c r="F63" s="5">
+        <v>176</v>
+      </c>
+      <c r="G63" s="5">
+        <v>199</v>
+      </c>
+      <c r="H63" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="J63" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="104"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="A64" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B64" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="108">
+        <v>33</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="5">
+        <v>52</v>
+      </c>
+      <c r="F64" s="5">
+        <v>63</v>
+      </c>
+      <c r="G64" s="5">
+        <v>75</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="J64" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="104"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+      <c r="A65" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B65" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="108">
+        <v>33</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="5">
+        <v>52</v>
+      </c>
+      <c r="F65" s="5">
+        <v>63</v>
+      </c>
+      <c r="G65" s="5">
+        <v>75</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="J65" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="104"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
+      <c r="A66" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B66" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="108">
+        <v>21</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="5">
+        <v>120</v>
+      </c>
+      <c r="F66" s="5">
+        <v>160</v>
+      </c>
+      <c r="G66" s="5">
+        <v>200</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
+      <c r="J66" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="104"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="A67" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="108">
+        <v>21</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="5">
+        <v>120</v>
+      </c>
+      <c r="F67" s="5">
+        <v>176</v>
+      </c>
+      <c r="G67" s="5">
+        <v>199</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" ref="H67:H81" si="2">F67-E67</f>
+        <v>56</v>
+      </c>
       <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="J67" s="5">
+        <f t="shared" ref="J67:J81" si="3">F67*I67</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="104"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="108"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="A68" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="108">
+        <v>21</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="5">
+        <v>52</v>
+      </c>
+      <c r="F68" s="5">
+        <v>63</v>
+      </c>
+      <c r="G68" s="5">
+        <v>75</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="104"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+      <c r="A69" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="108">
+        <v>21</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="5">
+        <v>52</v>
+      </c>
+      <c r="F69" s="5">
+        <v>63</v>
+      </c>
+      <c r="G69" s="5">
+        <v>75</v>
+      </c>
+      <c r="H69" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="J69" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="104"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+      <c r="A70" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="108">
+        <v>23</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="5">
+        <v>120</v>
+      </c>
+      <c r="F70" s="5">
+        <v>160</v>
+      </c>
+      <c r="G70" s="5">
+        <v>200</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="J70" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="104"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="A71" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="108">
+        <v>23</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" s="5">
+        <v>120</v>
+      </c>
+      <c r="F71" s="5">
+        <v>176</v>
+      </c>
+      <c r="G71" s="5">
+        <v>199</v>
+      </c>
+      <c r="H71" s="5">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
       <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
+      <c r="J71" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="104"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="A72" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="108">
+        <v>23</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="5">
+        <v>52</v>
+      </c>
+      <c r="F72" s="5">
+        <v>63</v>
+      </c>
+      <c r="G72" s="5">
+        <v>75</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="J72" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="104"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="A73" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="108">
+        <v>23</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" s="5">
+        <v>52</v>
+      </c>
+      <c r="F73" s="5">
+        <v>63</v>
+      </c>
+      <c r="G73" s="5">
+        <v>75</v>
+      </c>
+      <c r="H73" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="J73" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="104"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="108"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="A74" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="108">
+        <v>18</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="5">
+        <v>120</v>
+      </c>
+      <c r="F74" s="5">
+        <v>160</v>
+      </c>
+      <c r="G74" s="5">
+        <v>200</v>
+      </c>
+      <c r="H74" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
       <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
+      <c r="J74" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="104"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="A75" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="108">
+        <v>18</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="5">
+        <v>120</v>
+      </c>
+      <c r="F75" s="5">
+        <v>176</v>
+      </c>
+      <c r="G75" s="5">
+        <v>199</v>
+      </c>
+      <c r="H75" s="5">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
       <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+      <c r="J75" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="104"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="A76" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="108">
+        <v>18</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="5">
+        <v>52</v>
+      </c>
+      <c r="F76" s="5">
+        <v>63</v>
+      </c>
+      <c r="G76" s="5">
+        <v>75</v>
+      </c>
+      <c r="H76" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+      <c r="J76" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="104"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="A77" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="108">
+        <v>18</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" s="5">
+        <v>52</v>
+      </c>
+      <c r="F77" s="5">
+        <v>63</v>
+      </c>
+      <c r="G77" s="5">
+        <v>75</v>
+      </c>
+      <c r="H77" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="J77" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="104"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="A78" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B78" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="144">
+        <v>32</v>
+      </c>
+      <c r="D78" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="144">
+        <v>120</v>
+      </c>
+      <c r="F78" s="144">
+        <v>160</v>
+      </c>
+      <c r="G78" s="144">
+        <v>200</v>
+      </c>
+      <c r="H78" s="144">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I78" s="144"/>
+      <c r="J78" s="144">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="104"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="A79" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B79" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="144">
+        <v>32</v>
+      </c>
+      <c r="D79" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="144">
+        <v>120</v>
+      </c>
+      <c r="F79" s="144">
+        <v>176</v>
+      </c>
+      <c r="G79" s="144">
+        <v>199</v>
+      </c>
+      <c r="H79" s="144">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I79" s="144">
+        <v>3</v>
+      </c>
+      <c r="J79" s="144">
+        <f t="shared" si="3"/>
+        <v>528</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="104"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="108"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="A80" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B80" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="144">
+        <v>32</v>
+      </c>
+      <c r="D80" s="144" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="144">
+        <v>52</v>
+      </c>
+      <c r="F80" s="144">
+        <v>63</v>
+      </c>
+      <c r="G80" s="144">
+        <v>75</v>
+      </c>
+      <c r="H80" s="144">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I80" s="144">
+        <v>2</v>
+      </c>
+      <c r="J80" s="144">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="104"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
+      <c r="A81" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B81" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="144">
+        <v>32</v>
+      </c>
+      <c r="D81" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="144">
+        <v>52</v>
+      </c>
+      <c r="F81" s="144">
+        <v>63</v>
+      </c>
+      <c r="G81" s="144">
+        <v>75</v>
+      </c>
+      <c r="H81" s="144">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I81" s="144">
+        <v>3</v>
+      </c>
+      <c r="J81" s="144">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="104"/>

--- a/網路商城_2022_02月統計表.xlsx
+++ b/網路商城_2022_02月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2310" windowWidth="15600" windowHeight="7650" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="2355" windowWidth="15600" windowHeight="7605" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="218">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,6 +827,41 @@
   </si>
   <si>
     <t>楊梅金山</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>調理包_黑胡椒豬</t>
+  </si>
+  <si>
+    <t>調理包_黑胡椒豬</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>調理包_三杯雞</t>
+  </si>
+  <si>
+    <t>調理包_三杯雞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>調理包_紅燒牛</t>
+  </si>
+  <si>
+    <t>調理包_紅燒牛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麗菜水餃</t>
+  </si>
+  <si>
+    <t>高麗菜水餃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜水餃</t>
+  </si>
+  <si>
+    <t>韭菜水餃</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1497,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1930,9 +1965,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2138,11 +2170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140026368"/>
-        <c:axId val="143681792"/>
+        <c:axId val="190541824"/>
+        <c:axId val="76127552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140026368"/>
+        <c:axId val="190541824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2196,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143681792"/>
+        <c:crossAx val="76127552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143681792"/>
+        <c:axId val="76127552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2228,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140026368"/>
+        <c:crossAx val="190541824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2573,11 +2605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145676480"/>
-        <c:axId val="145677056"/>
+        <c:axId val="143584640"/>
+        <c:axId val="143585216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145676480"/>
+        <c:axId val="143584640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,12 +2653,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145677056"/>
+        <c:crossAx val="143585216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145677056"/>
+        <c:axId val="143585216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +2710,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145676480"/>
+        <c:crossAx val="143584640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2875,11 +2907,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="143906816"/>
-        <c:axId val="183256768"/>
+        <c:axId val="146044928"/>
+        <c:axId val="143588096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143906816"/>
+        <c:axId val="146044928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +2933,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183256768"/>
+        <c:crossAx val="143588096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2909,7 +2941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183256768"/>
+        <c:axId val="143588096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,7 +2951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143906816"/>
+        <c:crossAx val="146044928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3132,11 +3164,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="144936448"/>
-        <c:axId val="183258496"/>
+        <c:axId val="267084288"/>
+        <c:axId val="75358784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144936448"/>
+        <c:axId val="267084288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,7 +3190,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183258496"/>
+        <c:crossAx val="75358784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3166,7 +3198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183258496"/>
+        <c:axId val="75358784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,7 +3208,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144936448"/>
+        <c:crossAx val="267084288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3580,11 +3612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183260224"/>
-        <c:axId val="183260800"/>
+        <c:axId val="143587520"/>
+        <c:axId val="75361088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183260224"/>
+        <c:axId val="143587520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,12 +3660,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183260800"/>
+        <c:crossAx val="75361088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183260800"/>
+        <c:axId val="75361088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,7 +3717,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183260224"/>
+        <c:crossAx val="143587520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3993,11 +4025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143684096"/>
-        <c:axId val="143684672"/>
+        <c:axId val="130295488"/>
+        <c:axId val="130296064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143684096"/>
+        <c:axId val="130295488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4068,12 +4100,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143684672"/>
+        <c:crossAx val="130296064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143684672"/>
+        <c:axId val="130296064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,7 +4172,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143684096"/>
+        <c:crossAx val="130295488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4476,11 +4508,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="149218304"/>
-        <c:axId val="143686400"/>
+        <c:axId val="207802368"/>
+        <c:axId val="130297216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149218304"/>
+        <c:axId val="207802368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4502,7 +4534,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143686400"/>
+        <c:crossAx val="130297216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4510,7 +4542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143686400"/>
+        <c:axId val="130297216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4520,7 +4552,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149218304"/>
+        <c:crossAx val="207802368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4803,8 +4835,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142000128"/>
-        <c:axId val="144130624"/>
+        <c:axId val="207802880"/>
+        <c:axId val="130298944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4930,11 +4962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142000640"/>
-        <c:axId val="144131200"/>
+        <c:axId val="143996416"/>
+        <c:axId val="130299520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142000128"/>
+        <c:axId val="207802880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,7 +4988,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144130624"/>
+        <c:crossAx val="130298944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4964,7 +4996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144130624"/>
+        <c:axId val="130298944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4988,13 +5020,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142000128"/>
+        <c:crossAx val="207802880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144131200"/>
+        <c:axId val="130299520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,13 +5049,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142000640"/>
+        <c:crossAx val="143996416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="142000640"/>
+        <c:axId val="143996416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5032,7 +5064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144131200"/>
+        <c:crossAx val="130299520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5317,8 +5349,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142003712"/>
-        <c:axId val="144134080"/>
+        <c:axId val="145609216"/>
+        <c:axId val="124748352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5479,11 +5511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142002176"/>
-        <c:axId val="144133504"/>
+        <c:axId val="143851520"/>
+        <c:axId val="124747776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142002176"/>
+        <c:axId val="143851520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5505,7 +5537,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144133504"/>
+        <c:crossAx val="124747776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5513,7 +5545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144133504"/>
+        <c:axId val="124747776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,12 +5569,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142002176"/>
+        <c:crossAx val="143851520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144134080"/>
+        <c:axId val="124748352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5565,12 +5597,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="142003712"/>
+        <c:crossAx val="145609216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="142003712"/>
+        <c:axId val="145609216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5579,7 +5611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144134080"/>
+        <c:crossAx val="124748352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5819,11 +5851,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143905280"/>
-        <c:axId val="144136384"/>
+        <c:axId val="145610240"/>
+        <c:axId val="124750656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143905280"/>
+        <c:axId val="145610240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,7 +5877,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144136384"/>
+        <c:crossAx val="124750656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5853,7 +5885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144136384"/>
+        <c:axId val="124750656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5877,7 +5909,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143905280"/>
+        <c:crossAx val="145610240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6041,11 +6073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143908352"/>
-        <c:axId val="145670144"/>
+        <c:axId val="146043392"/>
+        <c:axId val="124752384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="143908352"/>
+        <c:axId val="146043392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6068,7 +6100,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145670144"/>
+        <c:crossAx val="124752384"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6077,7 +6109,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="145670144"/>
+        <c:axId val="124752384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6102,7 +6134,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143908352"/>
+        <c:crossAx val="146043392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6310,11 +6342,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="144101376"/>
-        <c:axId val="145672448"/>
+        <c:axId val="143997440"/>
+        <c:axId val="124754688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144101376"/>
+        <c:axId val="143997440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,7 +6368,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145672448"/>
+        <c:crossAx val="124754688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6344,7 +6376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145672448"/>
+        <c:axId val="124754688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6354,7 +6386,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144101376"/>
+        <c:crossAx val="143997440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6567,11 +6599,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="144104960"/>
-        <c:axId val="145674752"/>
+        <c:axId val="205242880"/>
+        <c:axId val="143582912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144104960"/>
+        <c:axId val="205242880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6593,7 +6625,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145674752"/>
+        <c:crossAx val="143582912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6601,7 +6633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145674752"/>
+        <c:axId val="143582912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,7 +6643,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144104960"/>
+        <c:crossAx val="205242880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9345,8 +9377,8 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O77" sqref="O77"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N128" sqref="N128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11536,12 +11568,12 @@
         <v>199</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" ref="H67:H81" si="2">F67-E67</f>
+        <f t="shared" ref="H67:H130" si="2">F67-E67</f>
         <v>56</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5">
-        <f t="shared" ref="J67:J81" si="3">F67*I67</f>
+        <f t="shared" ref="J67:J130" si="3">F67*I67</f>
         <v>0</v>
       </c>
     </row>
@@ -11869,30 +11901,30 @@
       <c r="A78" s="104">
         <v>44603</v>
       </c>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="144">
+      <c r="C78" s="108">
         <v>32</v>
       </c>
-      <c r="D78" s="144" t="s">
+      <c r="D78" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="E78" s="144">
+      <c r="E78" s="108">
         <v>120</v>
       </c>
-      <c r="F78" s="144">
+      <c r="F78" s="108">
         <v>160</v>
       </c>
-      <c r="G78" s="144">
+      <c r="G78" s="108">
         <v>200</v>
       </c>
-      <c r="H78" s="144">
+      <c r="H78" s="108">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I78" s="144"/>
-      <c r="J78" s="144">
+      <c r="I78" s="108"/>
+      <c r="J78" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11901,32 +11933,32 @@
       <c r="A79" s="104">
         <v>44603</v>
       </c>
-      <c r="B79" s="144" t="s">
+      <c r="B79" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="144">
+      <c r="C79" s="108">
         <v>32</v>
       </c>
-      <c r="D79" s="144" t="s">
+      <c r="D79" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="144">
+      <c r="E79" s="108">
         <v>120</v>
       </c>
-      <c r="F79" s="144">
+      <c r="F79" s="108">
         <v>176</v>
       </c>
-      <c r="G79" s="144">
+      <c r="G79" s="108">
         <v>199</v>
       </c>
-      <c r="H79" s="144">
+      <c r="H79" s="108">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="I79" s="144">
+      <c r="I79" s="108">
         <v>3</v>
       </c>
-      <c r="J79" s="144">
+      <c r="J79" s="108">
         <f t="shared" si="3"/>
         <v>528</v>
       </c>
@@ -11935,32 +11967,32 @@
       <c r="A80" s="104">
         <v>44603</v>
       </c>
-      <c r="B80" s="144" t="s">
+      <c r="B80" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="144">
+      <c r="C80" s="108">
         <v>32</v>
       </c>
-      <c r="D80" s="144" t="s">
+      <c r="D80" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="E80" s="144">
+      <c r="E80" s="108">
         <v>52</v>
       </c>
-      <c r="F80" s="144">
+      <c r="F80" s="108">
         <v>63</v>
       </c>
-      <c r="G80" s="144">
+      <c r="G80" s="108">
         <v>75</v>
       </c>
-      <c r="H80" s="144">
+      <c r="H80" s="108">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I80" s="144">
+      <c r="I80" s="108">
         <v>2</v>
       </c>
-      <c r="J80" s="144">
+      <c r="J80" s="108">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
@@ -11969,635 +12001,1665 @@
       <c r="A81" s="104">
         <v>44603</v>
       </c>
-      <c r="B81" s="144" t="s">
+      <c r="B81" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="144">
+      <c r="C81" s="108">
         <v>32</v>
       </c>
-      <c r="D81" s="144" t="s">
+      <c r="D81" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="E81" s="144">
+      <c r="E81" s="108">
         <v>52</v>
       </c>
-      <c r="F81" s="144">
+      <c r="F81" s="108">
         <v>63</v>
       </c>
-      <c r="G81" s="144">
+      <c r="G81" s="108">
         <v>75</v>
       </c>
-      <c r="H81" s="144">
+      <c r="H81" s="108">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I81" s="144">
+      <c r="I81" s="108">
         <v>3</v>
       </c>
-      <c r="J81" s="144">
+      <c r="J81" s="108">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="104"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="A82" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="108">
+        <v>40</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="5">
+        <v>85</v>
+      </c>
+      <c r="F82" s="5">
+        <v>106</v>
+      </c>
+      <c r="G82" s="5">
+        <v>130</v>
+      </c>
+      <c r="H82" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1</v>
+      </c>
+      <c r="J82" s="108">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="104"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="108"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="A83" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="108">
+        <v>40</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="5">
+        <v>85</v>
+      </c>
+      <c r="F83" s="5">
+        <v>106</v>
+      </c>
+      <c r="G83" s="5">
+        <v>130</v>
+      </c>
+      <c r="H83" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I83" s="5">
+        <v>1</v>
+      </c>
+      <c r="J83" s="108">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="104"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="108"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
+      <c r="A84" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="108">
+        <v>40</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="5">
+        <v>40</v>
+      </c>
+      <c r="F84" s="5">
+        <v>48</v>
+      </c>
+      <c r="G84" s="5">
+        <v>55</v>
+      </c>
+      <c r="H84" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I84" s="5">
+        <v>1</v>
+      </c>
+      <c r="J84" s="108">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="104"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
+      <c r="A85" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="108">
+        <v>40</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="5">
+        <v>40</v>
+      </c>
+      <c r="F85" s="5">
+        <v>48</v>
+      </c>
+      <c r="G85" s="5">
+        <v>55</v>
+      </c>
+      <c r="H85" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I85" s="5">
+        <v>1</v>
+      </c>
+      <c r="J85" s="108">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="104"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="108"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
+      <c r="A86" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="108">
+        <v>40</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E86" s="5">
+        <v>40</v>
+      </c>
+      <c r="F86" s="5">
+        <v>48</v>
+      </c>
+      <c r="G86" s="5">
+        <v>55</v>
+      </c>
+      <c r="H86" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I86" s="5">
+        <v>1</v>
+      </c>
+      <c r="J86" s="108">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="104"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
+      <c r="A87" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="108">
+        <v>77</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" s="5">
+        <v>85</v>
+      </c>
+      <c r="F87" s="5">
+        <v>106</v>
+      </c>
+      <c r="G87" s="5">
+        <v>130</v>
+      </c>
+      <c r="H87" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I87" s="5">
+        <v>1</v>
+      </c>
+      <c r="J87" s="108">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="104"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="108"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+      <c r="A88" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="108">
+        <v>77</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E88" s="5">
+        <v>85</v>
+      </c>
+      <c r="F88" s="5">
+        <v>106</v>
+      </c>
+      <c r="G88" s="5">
+        <v>130</v>
+      </c>
+      <c r="H88" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
+      <c r="J88" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="104"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="108"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
+      <c r="A89" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="108">
+        <v>77</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" s="5">
+        <v>40</v>
+      </c>
+      <c r="F89" s="5">
+        <v>48</v>
+      </c>
+      <c r="G89" s="5">
+        <v>55</v>
+      </c>
+      <c r="H89" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I89" s="5">
+        <v>4</v>
+      </c>
+      <c r="J89" s="108">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="104"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="108"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
+      <c r="A90" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="108">
+        <v>77</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="5">
+        <v>40</v>
+      </c>
+      <c r="F90" s="5">
+        <v>48</v>
+      </c>
+      <c r="G90" s="5">
+        <v>55</v>
+      </c>
+      <c r="H90" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I90" s="5">
+        <v>5</v>
+      </c>
+      <c r="J90" s="108">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="104"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
+      <c r="A91" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="108">
+        <v>77</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" s="5">
+        <v>40</v>
+      </c>
+      <c r="F91" s="5">
+        <v>48</v>
+      </c>
+      <c r="G91" s="5">
+        <v>55</v>
+      </c>
+      <c r="H91" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I91" s="5">
+        <v>8</v>
+      </c>
+      <c r="J91" s="108">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="104"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="108"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
+      <c r="A92" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="108">
+        <v>53</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" s="5">
+        <v>85</v>
+      </c>
+      <c r="F92" s="5">
+        <v>106</v>
+      </c>
+      <c r="G92" s="5">
+        <v>130</v>
+      </c>
+      <c r="H92" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1</v>
+      </c>
+      <c r="J92" s="108">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="104"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
+      <c r="A93" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="108">
+        <v>53</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E93" s="5">
+        <v>85</v>
+      </c>
+      <c r="F93" s="5">
+        <v>106</v>
+      </c>
+      <c r="G93" s="5">
+        <v>130</v>
+      </c>
+      <c r="H93" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I93" s="5">
+        <v>2</v>
+      </c>
+      <c r="J93" s="108">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="104"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="108"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+      <c r="A94" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="108">
+        <v>53</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="5">
+        <v>40</v>
+      </c>
+      <c r="F94" s="5">
+        <v>48</v>
+      </c>
+      <c r="G94" s="5">
+        <v>55</v>
+      </c>
+      <c r="H94" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
+      <c r="J94" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="104"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="A95" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="108">
+        <v>53</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="5">
+        <v>40</v>
+      </c>
+      <c r="F95" s="5">
+        <v>48</v>
+      </c>
+      <c r="G95" s="5">
+        <v>55</v>
+      </c>
+      <c r="H95" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="J95" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="104"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="108"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
+      <c r="A96" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="108">
+        <v>53</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="5">
+        <v>40</v>
+      </c>
+      <c r="F96" s="5">
+        <v>48</v>
+      </c>
+      <c r="G96" s="5">
+        <v>55</v>
+      </c>
+      <c r="H96" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
+      <c r="J96" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="104"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="108"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
+      <c r="A97" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="108">
+        <v>50</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="5">
+        <v>85</v>
+      </c>
+      <c r="F97" s="5">
+        <v>106</v>
+      </c>
+      <c r="G97" s="5">
+        <v>130</v>
+      </c>
+      <c r="H97" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+      <c r="J97" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="104"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="108"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+      <c r="A98" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="108">
+        <v>50</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E98" s="5">
+        <v>85</v>
+      </c>
+      <c r="F98" s="5">
+        <v>106</v>
+      </c>
+      <c r="G98" s="5">
+        <v>130</v>
+      </c>
+      <c r="H98" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
+      <c r="J98" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="104"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="108"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
+      <c r="A99" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="108">
+        <v>50</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E99" s="5">
+        <v>40</v>
+      </c>
+      <c r="F99" s="5">
+        <v>48</v>
+      </c>
+      <c r="G99" s="5">
+        <v>55</v>
+      </c>
+      <c r="H99" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+      <c r="J99" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="104"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="108"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
+      <c r="A100" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="108">
+        <v>50</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E100" s="5">
+        <v>40</v>
+      </c>
+      <c r="F100" s="5">
+        <v>48</v>
+      </c>
+      <c r="G100" s="5">
+        <v>55</v>
+      </c>
+      <c r="H100" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+      <c r="J100" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="104"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+      <c r="A101" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="108">
+        <v>50</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" s="5">
+        <v>40</v>
+      </c>
+      <c r="F101" s="5">
+        <v>48</v>
+      </c>
+      <c r="G101" s="5">
+        <v>55</v>
+      </c>
+      <c r="H101" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
+      <c r="J101" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="104"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
+      <c r="A102" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="108">
+        <v>23</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="5">
+        <v>85</v>
+      </c>
+      <c r="F102" s="5">
+        <v>106</v>
+      </c>
+      <c r="G102" s="5">
+        <v>130</v>
+      </c>
+      <c r="H102" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
+      <c r="J102" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="104"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="108"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="A103" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="108">
+        <v>23</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" s="5">
+        <v>85</v>
+      </c>
+      <c r="F103" s="5">
+        <v>106</v>
+      </c>
+      <c r="G103" s="5">
+        <v>130</v>
+      </c>
+      <c r="H103" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
+      <c r="J103" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="104"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="108"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="A104" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="108">
+        <v>23</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" s="5">
+        <v>40</v>
+      </c>
+      <c r="F104" s="5">
+        <v>48</v>
+      </c>
+      <c r="G104" s="5">
+        <v>55</v>
+      </c>
+      <c r="H104" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
+      <c r="J104" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="104"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+      <c r="A105" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="108">
+        <v>23</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" s="5">
+        <v>40</v>
+      </c>
+      <c r="F105" s="5">
+        <v>48</v>
+      </c>
+      <c r="G105" s="5">
+        <v>55</v>
+      </c>
+      <c r="H105" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
+      <c r="J105" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="104"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="A106" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="108">
+        <v>23</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E106" s="5">
+        <v>40</v>
+      </c>
+      <c r="F106" s="5">
+        <v>48</v>
+      </c>
+      <c r="G106" s="5">
+        <v>55</v>
+      </c>
+      <c r="H106" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
+      <c r="J106" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="104"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="A107" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="5">
+        <v>33</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="5">
+        <v>85</v>
+      </c>
+      <c r="F107" s="5">
+        <v>106</v>
+      </c>
+      <c r="G107" s="5">
+        <v>130</v>
+      </c>
+      <c r="H107" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
+      <c r="J107" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="104"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="A108" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="5">
+        <v>33</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" s="5">
+        <v>85</v>
+      </c>
+      <c r="F108" s="5">
+        <v>106</v>
+      </c>
+      <c r="G108" s="5">
+        <v>130</v>
+      </c>
+      <c r="H108" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
+      <c r="J108" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="104"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+      <c r="A109" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="5">
+        <v>33</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109" s="5">
+        <v>40</v>
+      </c>
+      <c r="F109" s="5">
+        <v>48</v>
+      </c>
+      <c r="G109" s="5">
+        <v>55</v>
+      </c>
+      <c r="H109" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
+      <c r="J109" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="104"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
+      <c r="A110" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="5">
+        <v>33</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E110" s="5">
+        <v>40</v>
+      </c>
+      <c r="F110" s="5">
+        <v>48</v>
+      </c>
+      <c r="G110" s="5">
+        <v>55</v>
+      </c>
+      <c r="H110" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="J110" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="104"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
+      <c r="A111" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="5">
+        <v>33</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" s="5">
+        <v>40</v>
+      </c>
+      <c r="F111" s="5">
+        <v>48</v>
+      </c>
+      <c r="G111" s="5">
+        <v>55</v>
+      </c>
+      <c r="H111" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
+      <c r="J111" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="104"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
+      <c r="A112" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="5">
+        <v>99</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E112" s="5">
+        <v>85</v>
+      </c>
+      <c r="F112" s="5">
+        <v>106</v>
+      </c>
+      <c r="G112" s="5">
+        <v>130</v>
+      </c>
+      <c r="H112" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
+      <c r="J112" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="104"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
+      <c r="A113" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="5">
+        <v>99</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E113" s="5">
+        <v>85</v>
+      </c>
+      <c r="F113" s="5">
+        <v>106</v>
+      </c>
+      <c r="G113" s="5">
+        <v>130</v>
+      </c>
+      <c r="H113" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I113" s="5">
+        <v>1</v>
+      </c>
+      <c r="J113" s="108">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="104"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="A114" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="5">
+        <v>99</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E114" s="5">
+        <v>40</v>
+      </c>
+      <c r="F114" s="5">
+        <v>48</v>
+      </c>
+      <c r="G114" s="5">
+        <v>55</v>
+      </c>
+      <c r="H114" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I114" s="5">
+        <v>1</v>
+      </c>
+      <c r="J114" s="108">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="104"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
+      <c r="A115" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="5">
+        <v>99</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E115" s="5">
+        <v>40</v>
+      </c>
+      <c r="F115" s="5">
+        <v>48</v>
+      </c>
+      <c r="G115" s="5">
+        <v>55</v>
+      </c>
+      <c r="H115" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I115" s="5">
+        <v>1</v>
+      </c>
+      <c r="J115" s="108">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="104"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
+      <c r="A116" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" s="5">
+        <v>99</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" s="5">
+        <v>40</v>
+      </c>
+      <c r="F116" s="5">
+        <v>48</v>
+      </c>
+      <c r="G116" s="5">
+        <v>55</v>
+      </c>
+      <c r="H116" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I116" s="5">
+        <v>1</v>
+      </c>
+      <c r="J116" s="108">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="104"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
+      <c r="A117" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="5">
+        <v>21</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E117" s="5">
+        <v>85</v>
+      </c>
+      <c r="F117" s="5">
+        <v>106</v>
+      </c>
+      <c r="G117" s="5">
+        <v>130</v>
+      </c>
+      <c r="H117" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
+      <c r="J117" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="104"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="A118" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="5">
+        <v>21</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E118" s="5">
+        <v>85</v>
+      </c>
+      <c r="F118" s="5">
+        <v>106</v>
+      </c>
+      <c r="G118" s="5">
+        <v>130</v>
+      </c>
+      <c r="H118" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+      <c r="J118" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="104"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="A119" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="5">
+        <v>21</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E119" s="5">
+        <v>40</v>
+      </c>
+      <c r="F119" s="5">
+        <v>48</v>
+      </c>
+      <c r="G119" s="5">
+        <v>55</v>
+      </c>
+      <c r="H119" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+      <c r="J119" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="104"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="A120" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="5">
+        <v>21</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E120" s="5">
+        <v>40</v>
+      </c>
+      <c r="F120" s="5">
+        <v>48</v>
+      </c>
+      <c r="G120" s="5">
+        <v>55</v>
+      </c>
+      <c r="H120" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
+      <c r="J120" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="104"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
+      <c r="A121" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="5">
+        <v>21</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E121" s="5">
+        <v>40</v>
+      </c>
+      <c r="F121" s="5">
+        <v>48</v>
+      </c>
+      <c r="G121" s="5">
+        <v>55</v>
+      </c>
+      <c r="H121" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
+      <c r="J121" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="104"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="A122" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="5">
+        <v>18</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E122" s="5">
+        <v>85</v>
+      </c>
+      <c r="F122" s="5">
+        <v>106</v>
+      </c>
+      <c r="G122" s="5">
+        <v>130</v>
+      </c>
+      <c r="H122" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
+      <c r="J122" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="104"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="A123" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123" s="5">
+        <v>18</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E123" s="5">
+        <v>85</v>
+      </c>
+      <c r="F123" s="5">
+        <v>106</v>
+      </c>
+      <c r="G123" s="5">
+        <v>130</v>
+      </c>
+      <c r="H123" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
+      <c r="J123" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="104"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
+      <c r="A124" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="5">
+        <v>18</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E124" s="5">
+        <v>40</v>
+      </c>
+      <c r="F124" s="5">
+        <v>48</v>
+      </c>
+      <c r="G124" s="5">
+        <v>55</v>
+      </c>
+      <c r="H124" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
+      <c r="J124" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="104"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="A125" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="5">
+        <v>18</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E125" s="5">
+        <v>40</v>
+      </c>
+      <c r="F125" s="5">
+        <v>48</v>
+      </c>
+      <c r="G125" s="5">
+        <v>55</v>
+      </c>
+      <c r="H125" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
+      <c r="J125" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="104"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
+      <c r="A126" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="5">
+        <v>18</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E126" s="5">
+        <v>40</v>
+      </c>
+      <c r="F126" s="5">
+        <v>48</v>
+      </c>
+      <c r="G126" s="5">
+        <v>55</v>
+      </c>
+      <c r="H126" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
+      <c r="J126" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="104"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
+      <c r="A127" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" s="5">
+        <v>32</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="5">
+        <v>85</v>
+      </c>
+      <c r="F127" s="5">
+        <v>106</v>
+      </c>
+      <c r="G127" s="5">
+        <v>130</v>
+      </c>
+      <c r="H127" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
+      <c r="J127" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="104"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
+      <c r="A128" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" s="5">
+        <v>32</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E128" s="5">
+        <v>85</v>
+      </c>
+      <c r="F128" s="5">
+        <v>106</v>
+      </c>
+      <c r="G128" s="5">
+        <v>130</v>
+      </c>
+      <c r="H128" s="108">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
+      <c r="J128" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="104"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
+      <c r="A129" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="5">
+        <v>32</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E129" s="5">
+        <v>40</v>
+      </c>
+      <c r="F129" s="5">
+        <v>48</v>
+      </c>
+      <c r="G129" s="5">
+        <v>55</v>
+      </c>
+      <c r="H129" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
+      <c r="J129" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="104"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
+      <c r="A130" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="5">
+        <v>32</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E130" s="5">
+        <v>40</v>
+      </c>
+      <c r="F130" s="5">
+        <v>48</v>
+      </c>
+      <c r="G130" s="5">
+        <v>55</v>
+      </c>
+      <c r="H130" s="108">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
       <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
+      <c r="J130" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="104"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
+      <c r="A131" s="104">
+        <v>44603</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" s="5">
+        <v>32</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E131" s="5">
+        <v>40</v>
+      </c>
+      <c r="F131" s="5">
+        <v>48</v>
+      </c>
+      <c r="G131" s="5">
+        <v>55</v>
+      </c>
+      <c r="H131" s="108">
+        <f t="shared" ref="H131" si="4">F131-E131</f>
+        <v>8</v>
+      </c>
       <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
+      <c r="J131" s="108">
+        <f t="shared" ref="J131" si="5">F131*I131</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="104"/>

--- a/網路商城_2022_02月統計表.xlsx
+++ b/網路商城_2022_02月統計表.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="1222-加盟店人數&amp;銷售額關係" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="1月-電商每周銷售額&amp;利潤" sheetId="7" r:id="rId3"/>
+    <sheet name="2月-電商每周銷售額&amp;利潤" sheetId="7" r:id="rId3"/>
     <sheet name="12月-加盟店每周統計" sheetId="8" state="hidden" r:id="rId4"/>
     <sheet name="12月-商品庫存數量&amp;金額" sheetId="6" state="hidden" r:id="rId5"/>
     <sheet name="12月-Line社群人數統計" sheetId="4" state="hidden" r:id="rId6"/>
@@ -2170,11 +2170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190541824"/>
-        <c:axId val="76127552"/>
+        <c:axId val="131901952"/>
+        <c:axId val="139750784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190541824"/>
+        <c:axId val="131901952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2196,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76127552"/>
+        <c:crossAx val="139750784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2204,7 +2204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76127552"/>
+        <c:axId val="139750784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2228,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190541824"/>
+        <c:crossAx val="131901952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2605,11 +2605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143584640"/>
-        <c:axId val="143585216"/>
+        <c:axId val="131991232"/>
+        <c:axId val="131991808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143584640"/>
+        <c:axId val="131991232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,12 +2653,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143585216"/>
+        <c:crossAx val="131991808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143585216"/>
+        <c:axId val="131991808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2710,7 +2710,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143584640"/>
+        <c:crossAx val="131991232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2907,11 +2907,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="146044928"/>
-        <c:axId val="143588096"/>
+        <c:axId val="165451776"/>
+        <c:axId val="131994688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146044928"/>
+        <c:axId val="165451776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2933,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143588096"/>
+        <c:crossAx val="131994688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2941,7 +2941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143588096"/>
+        <c:axId val="131994688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146044928"/>
+        <c:crossAx val="165451776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3164,11 +3164,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="267084288"/>
-        <c:axId val="75358784"/>
+        <c:axId val="165453312"/>
+        <c:axId val="131996416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267084288"/>
+        <c:axId val="165453312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3190,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75358784"/>
+        <c:crossAx val="131996416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3198,7 +3198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75358784"/>
+        <c:axId val="131996416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +3208,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267084288"/>
+        <c:crossAx val="165453312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3612,11 +3612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143587520"/>
-        <c:axId val="75361088"/>
+        <c:axId val="165298752"/>
+        <c:axId val="165299328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143587520"/>
+        <c:axId val="165298752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3660,12 +3660,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75361088"/>
+        <c:crossAx val="165299328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75361088"/>
+        <c:axId val="165299328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3717,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143587520"/>
+        <c:crossAx val="165298752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4025,11 +4025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130295488"/>
-        <c:axId val="130296064"/>
+        <c:axId val="158921792"/>
+        <c:axId val="158922368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130295488"/>
+        <c:axId val="158921792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,12 +4100,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130296064"/>
+        <c:crossAx val="158922368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130296064"/>
+        <c:axId val="158922368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4172,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130295488"/>
+        <c:crossAx val="158921792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4508,11 +4508,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="207802368"/>
-        <c:axId val="130297216"/>
+        <c:axId val="128112128"/>
+        <c:axId val="158924096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207802368"/>
+        <c:axId val="128112128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,7 +4534,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130297216"/>
+        <c:crossAx val="158924096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4542,7 +4542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130297216"/>
+        <c:axId val="158924096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +4552,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207802368"/>
+        <c:crossAx val="128112128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4681,6 +4681,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4730,7 +4731,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
+              <c:f>'2月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4750,7 +4751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$6:$F$6</c:f>
+              <c:f>'2月-電商每周銷售額&amp;利潤'!$C$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4798,7 +4799,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
+              <c:f>'2月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4818,7 +4819,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$7:$F$7</c:f>
+              <c:f>'2月-電商每周銷售額&amp;利潤'!$C$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4835,8 +4836,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="207802880"/>
-        <c:axId val="130298944"/>
+        <c:axId val="131678208"/>
+        <c:axId val="172478400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4923,7 +4924,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
+              <c:f>'2月-電商每周銷售額&amp;利潤'!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4943,7 +4944,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1月-電商每周銷售額&amp;利潤'!$C$5:$F$5</c:f>
+              <c:f>'2月-電商每周銷售額&amp;利潤'!$C$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4962,11 +4963,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143996416"/>
-        <c:axId val="130299520"/>
+        <c:axId val="131678720"/>
+        <c:axId val="172479552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207802880"/>
+        <c:axId val="131678208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4988,7 +4989,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130298944"/>
+        <c:crossAx val="172478400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4996,7 +4997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130298944"/>
+        <c:axId val="172478400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5020,13 +5021,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207802880"/>
+        <c:crossAx val="131678208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130299520"/>
+        <c:axId val="172479552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,13 +5050,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143996416"/>
+        <c:crossAx val="131678720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="143996416"/>
+        <c:axId val="131678720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5064,7 +5065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130299520"/>
+        <c:crossAx val="172479552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5349,8 +5350,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145609216"/>
-        <c:axId val="124748352"/>
+        <c:axId val="128110592"/>
+        <c:axId val="172482560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5511,11 +5512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143851520"/>
-        <c:axId val="124747776"/>
+        <c:axId val="131680256"/>
+        <c:axId val="172481856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143851520"/>
+        <c:axId val="131680256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,7 +5538,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124747776"/>
+        <c:crossAx val="172481856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5545,7 +5546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124747776"/>
+        <c:axId val="172481856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,12 +5570,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143851520"/>
+        <c:crossAx val="131680256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124748352"/>
+        <c:axId val="172482560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5597,12 +5598,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145609216"/>
+        <c:crossAx val="128110592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="145609216"/>
+        <c:axId val="128110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5611,7 +5612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124748352"/>
+        <c:crossAx val="172482560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5851,11 +5852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145610240"/>
-        <c:axId val="124750656"/>
+        <c:axId val="137320448"/>
+        <c:axId val="172484864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145610240"/>
+        <c:axId val="137320448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5877,7 +5878,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124750656"/>
+        <c:crossAx val="172484864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5885,7 +5886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124750656"/>
+        <c:axId val="172484864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5909,7 +5910,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145610240"/>
+        <c:crossAx val="137320448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6073,11 +6074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146043392"/>
-        <c:axId val="124752384"/>
+        <c:axId val="137321984"/>
+        <c:axId val="172486592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="146043392"/>
+        <c:axId val="137321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6100,7 +6101,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124752384"/>
+        <c:crossAx val="172486592"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6109,7 +6110,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="124752384"/>
+        <c:axId val="172486592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6134,7 +6135,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146043392"/>
+        <c:crossAx val="137321984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6342,11 +6343,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="143997440"/>
-        <c:axId val="124754688"/>
+        <c:axId val="165090816"/>
+        <c:axId val="172488896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143997440"/>
+        <c:axId val="165090816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,7 +6369,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124754688"/>
+        <c:crossAx val="172488896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6376,7 +6377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124754688"/>
+        <c:axId val="172488896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6386,7 +6387,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143997440"/>
+        <c:crossAx val="165090816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6599,11 +6600,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="205242880"/>
-        <c:axId val="143582912"/>
+        <c:axId val="165092864"/>
+        <c:axId val="131989504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205242880"/>
+        <c:axId val="165092864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6625,7 +6626,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143582912"/>
+        <c:crossAx val="131989504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6633,7 +6634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143582912"/>
+        <c:axId val="131989504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6643,7 +6644,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205242880"/>
+        <c:crossAx val="165092864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9377,8 +9378,8 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N128" sqref="N128"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12687,10 +12688,12 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I101" s="5"/>
+      <c r="I101" s="5">
+        <v>2</v>
+      </c>
       <c r="J101" s="108">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">

--- a/網路商城_2022_02月統計表.xlsx
+++ b/網路商城_2022_02月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2355" windowWidth="15600" windowHeight="7605" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="2400" windowWidth="15600" windowHeight="7560" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="228">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -862,6 +862,41 @@
   </si>
   <si>
     <t>韭菜水餃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">玉米濃湯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">玉米濃湯 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鮮焗飯</t>
+  </si>
+  <si>
+    <t>海鮮焗飯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">咖哩焗飯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">咖哩焗飯 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">牛肉丸子燉飯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">牛肉丸子燉飯 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青醬雞肉燉飯</t>
+  </si>
+  <si>
+    <t>青醬雞肉燉飯</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2170,11 +2205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131901952"/>
-        <c:axId val="139750784"/>
+        <c:axId val="149566464"/>
+        <c:axId val="145943936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131901952"/>
+        <c:axId val="149566464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2231,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139750784"/>
+        <c:crossAx val="145943936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2204,7 +2239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139750784"/>
+        <c:axId val="145943936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2263,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131901952"/>
+        <c:crossAx val="149566464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2605,11 +2640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131991232"/>
-        <c:axId val="131991808"/>
+        <c:axId val="150510912"/>
+        <c:axId val="154443776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131991232"/>
+        <c:axId val="150510912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,12 +2688,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131991808"/>
+        <c:crossAx val="154443776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131991808"/>
+        <c:axId val="154443776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2710,7 +2745,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131991232"/>
+        <c:crossAx val="150510912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2907,11 +2942,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="165451776"/>
-        <c:axId val="131994688"/>
+        <c:axId val="136634368"/>
+        <c:axId val="154446656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165451776"/>
+        <c:axId val="136634368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2968,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131994688"/>
+        <c:crossAx val="154446656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2941,7 +2976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131994688"/>
+        <c:axId val="154446656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165451776"/>
+        <c:crossAx val="136634368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3164,11 +3199,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="165453312"/>
-        <c:axId val="131996416"/>
+        <c:axId val="136636928"/>
+        <c:axId val="154448384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165453312"/>
+        <c:axId val="136636928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3225,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131996416"/>
+        <c:crossAx val="154448384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3198,7 +3233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131996416"/>
+        <c:axId val="154448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +3243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165453312"/>
+        <c:crossAx val="136636928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3612,11 +3647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165298752"/>
-        <c:axId val="165299328"/>
+        <c:axId val="154450112"/>
+        <c:axId val="154450688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165298752"/>
+        <c:axId val="154450112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3660,12 +3695,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165299328"/>
+        <c:crossAx val="154450688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165299328"/>
+        <c:axId val="154450688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3717,7 +3752,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165298752"/>
+        <c:crossAx val="154450112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4025,11 +4060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158921792"/>
-        <c:axId val="158922368"/>
+        <c:axId val="145946240"/>
+        <c:axId val="145946816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158921792"/>
+        <c:axId val="145946240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,12 +4135,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158922368"/>
+        <c:crossAx val="145946816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158922368"/>
+        <c:axId val="145946816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4207,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158921792"/>
+        <c:crossAx val="145946240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4508,11 +4543,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="128112128"/>
-        <c:axId val="158924096"/>
+        <c:axId val="154207232"/>
+        <c:axId val="145945664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128112128"/>
+        <c:axId val="154207232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,7 +4569,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158924096"/>
+        <c:crossAx val="145945664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4542,7 +4577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158924096"/>
+        <c:axId val="145945664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +4587,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128112128"/>
+        <c:crossAx val="154207232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4681,7 +4716,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4836,8 +4870,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="131678208"/>
-        <c:axId val="172478400"/>
+        <c:axId val="154209280"/>
+        <c:axId val="145614528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4963,11 +4997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131678720"/>
-        <c:axId val="172479552"/>
+        <c:axId val="154209792"/>
+        <c:axId val="145615104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131678208"/>
+        <c:axId val="154209280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4989,7 +5023,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172478400"/>
+        <c:crossAx val="145614528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4997,7 +5031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172478400"/>
+        <c:axId val="145614528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5021,13 +5055,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131678208"/>
+        <c:crossAx val="154209280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172479552"/>
+        <c:axId val="145615104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5050,13 +5084,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131678720"/>
+        <c:crossAx val="154209792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="131678720"/>
+        <c:axId val="154209792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5065,7 +5099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172479552"/>
+        <c:crossAx val="145615104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5350,8 +5384,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128110592"/>
-        <c:axId val="172482560"/>
+        <c:axId val="150690304"/>
+        <c:axId val="145617984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5512,11 +5546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131680256"/>
-        <c:axId val="172481856"/>
+        <c:axId val="150688256"/>
+        <c:axId val="145617408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131680256"/>
+        <c:axId val="150688256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5538,7 +5572,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172481856"/>
+        <c:crossAx val="145617408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5546,7 +5580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172481856"/>
+        <c:axId val="145617408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5570,12 +5604,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131680256"/>
+        <c:crossAx val="150688256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172482560"/>
+        <c:axId val="145617984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5598,12 +5632,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128110592"/>
+        <c:crossAx val="150690304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="128110592"/>
+        <c:axId val="150690304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5612,7 +5646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172482560"/>
+        <c:crossAx val="145617984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5852,11 +5886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137320448"/>
-        <c:axId val="172484864"/>
+        <c:axId val="150691328"/>
+        <c:axId val="145620288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137320448"/>
+        <c:axId val="150691328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5878,7 +5912,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172484864"/>
+        <c:crossAx val="145620288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5886,7 +5920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172484864"/>
+        <c:axId val="145620288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5910,7 +5944,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137320448"/>
+        <c:crossAx val="150691328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6074,11 +6108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137321984"/>
-        <c:axId val="172486592"/>
+        <c:axId val="154630656"/>
+        <c:axId val="150504576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="137321984"/>
+        <c:axId val="154630656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6101,7 +6135,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172486592"/>
+        <c:crossAx val="150504576"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6110,7 +6144,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="172486592"/>
+        <c:axId val="150504576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6135,7 +6169,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137321984"/>
+        <c:crossAx val="154630656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6343,11 +6377,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="165090816"/>
-        <c:axId val="172488896"/>
+        <c:axId val="150688768"/>
+        <c:axId val="150506880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165090816"/>
+        <c:axId val="150688768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6369,7 +6403,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172488896"/>
+        <c:crossAx val="150506880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6377,7 +6411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172488896"/>
+        <c:axId val="150506880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6387,7 +6421,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165090816"/>
+        <c:crossAx val="150688768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6600,11 +6634,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="165092864"/>
-        <c:axId val="131989504"/>
+        <c:axId val="154753536"/>
+        <c:axId val="150509184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165092864"/>
+        <c:axId val="154753536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,7 +6660,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131989504"/>
+        <c:crossAx val="150509184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6634,7 +6668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131989504"/>
+        <c:axId val="150509184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6644,7 +6678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165092864"/>
+        <c:crossAx val="154753536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9375,11 +9409,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J144"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N180" sqref="N180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13655,170 +13689,1642 @@
         <v>55</v>
       </c>
       <c r="H131" s="108">
-        <f t="shared" ref="H131" si="4">F131-E131</f>
+        <f t="shared" ref="H131:H181" si="4">F131-E131</f>
         <v>8</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="108">
-        <f t="shared" ref="J131" si="5">F131*I131</f>
+        <f t="shared" ref="J131:J181" si="5">F131*I131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="104"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
+      <c r="A132" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="5">
+        <v>40</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E132" s="5">
+        <v>12</v>
+      </c>
+      <c r="F132" s="5">
+        <v>17</v>
+      </c>
+      <c r="G132" s="5">
+        <v>25</v>
+      </c>
+      <c r="H132" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
+      <c r="J132" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="104"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
+      <c r="A133" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="5">
+        <v>40</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E133" s="5">
+        <v>45</v>
+      </c>
+      <c r="F133" s="5">
+        <v>60</v>
+      </c>
+      <c r="G133" s="5">
+        <v>70</v>
+      </c>
+      <c r="H133" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
       <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
+      <c r="J133" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="104"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
+      <c r="A134" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="5">
+        <v>40</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E134" s="5">
+        <v>45</v>
+      </c>
+      <c r="F134" s="5">
+        <v>60</v>
+      </c>
+      <c r="G134" s="5">
+        <v>70</v>
+      </c>
+      <c r="H134" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
       <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
+      <c r="J134" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="104"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="A135" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" s="5">
+        <v>40</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E135" s="5">
+        <v>70</v>
+      </c>
+      <c r="F135" s="5">
+        <v>80</v>
+      </c>
+      <c r="G135" s="5">
+        <v>89</v>
+      </c>
+      <c r="H135" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I135" s="5">
+        <v>3</v>
+      </c>
+      <c r="J135" s="108">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="104"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
+      <c r="A136" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="5">
+        <v>40</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E136" s="5">
+        <v>83</v>
+      </c>
+      <c r="F136" s="5">
+        <v>94</v>
+      </c>
+      <c r="G136" s="5">
+        <v>105</v>
+      </c>
+      <c r="H136" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I136" s="5">
+        <v>1</v>
+      </c>
+      <c r="J136" s="108">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="104"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
+      <c r="A137" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="5">
+        <v>76</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137" s="5">
+        <v>12</v>
+      </c>
+      <c r="F137" s="5">
+        <v>17</v>
+      </c>
+      <c r="G137" s="5">
+        <v>25</v>
+      </c>
+      <c r="H137" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I137" s="5">
+        <v>9</v>
+      </c>
+      <c r="J137" s="108">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="104"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="A138" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="5">
+        <v>76</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E138" s="5">
+        <v>45</v>
+      </c>
+      <c r="F138" s="5">
+        <v>60</v>
+      </c>
+      <c r="G138" s="5">
+        <v>70</v>
+      </c>
+      <c r="H138" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I138" s="5">
+        <v>2</v>
+      </c>
+      <c r="J138" s="108">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="104"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
+      <c r="A139" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="5">
+        <v>76</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E139" s="5">
+        <v>45</v>
+      </c>
+      <c r="F139" s="5">
+        <v>60</v>
+      </c>
+      <c r="G139" s="5">
+        <v>70</v>
+      </c>
+      <c r="H139" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I139" s="5">
+        <v>1</v>
+      </c>
+      <c r="J139" s="108">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="104"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
+      <c r="A140" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="5">
+        <v>76</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E140" s="5">
+        <v>70</v>
+      </c>
+      <c r="F140" s="5">
+        <v>80</v>
+      </c>
+      <c r="G140" s="5">
+        <v>89</v>
+      </c>
+      <c r="H140" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I140" s="5">
+        <v>1</v>
+      </c>
+      <c r="J140" s="108">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="104"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
+      <c r="A141" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="5">
+        <v>76</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E141" s="5">
+        <v>83</v>
+      </c>
+      <c r="F141" s="5">
+        <v>94</v>
+      </c>
+      <c r="G141" s="5">
+        <v>105</v>
+      </c>
+      <c r="H141" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I141" s="5">
+        <v>1</v>
+      </c>
+      <c r="J141" s="108">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="104"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
+      <c r="A142" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="5">
+        <v>53</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142" s="5">
+        <v>12</v>
+      </c>
+      <c r="F142" s="5">
+        <v>17</v>
+      </c>
+      <c r="G142" s="5">
+        <v>25</v>
+      </c>
+      <c r="H142" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+      <c r="J142" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="104"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
+      <c r="A143" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="5">
+        <v>53</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E143" s="5">
+        <v>45</v>
+      </c>
+      <c r="F143" s="5">
+        <v>60</v>
+      </c>
+      <c r="G143" s="5">
+        <v>70</v>
+      </c>
+      <c r="H143" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I143" s="5">
+        <v>3</v>
+      </c>
+      <c r="J143" s="108">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="104"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
+      <c r="A144" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="5">
+        <v>53</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E144" s="5">
+        <v>45</v>
+      </c>
+      <c r="F144" s="5">
+        <v>60</v>
+      </c>
+      <c r="G144" s="5">
+        <v>70</v>
+      </c>
+      <c r="H144" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
       <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
+      <c r="J144" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="5">
+        <v>53</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E145" s="5">
+        <v>70</v>
+      </c>
+      <c r="F145" s="5">
+        <v>80</v>
+      </c>
+      <c r="G145" s="5">
+        <v>89</v>
+      </c>
+      <c r="H145" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I145" s="5"/>
+      <c r="J145" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="5">
+        <v>53</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E146" s="5">
+        <v>83</v>
+      </c>
+      <c r="F146" s="5">
+        <v>94</v>
+      </c>
+      <c r="G146" s="5">
+        <v>105</v>
+      </c>
+      <c r="H146" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I146" s="5"/>
+      <c r="J146" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="5">
+        <v>23</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E147" s="5">
+        <v>12</v>
+      </c>
+      <c r="F147" s="5">
+        <v>17</v>
+      </c>
+      <c r="G147" s="5">
+        <v>25</v>
+      </c>
+      <c r="H147" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I147" s="5"/>
+      <c r="J147" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" s="5">
+        <v>23</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E148" s="5">
+        <v>45</v>
+      </c>
+      <c r="F148" s="5">
+        <v>60</v>
+      </c>
+      <c r="G148" s="5">
+        <v>70</v>
+      </c>
+      <c r="H148" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I148" s="5"/>
+      <c r="J148" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="5">
+        <v>23</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E149" s="5">
+        <v>45</v>
+      </c>
+      <c r="F149" s="5">
+        <v>60</v>
+      </c>
+      <c r="G149" s="5">
+        <v>70</v>
+      </c>
+      <c r="H149" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I149" s="5"/>
+      <c r="J149" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="5">
+        <v>23</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E150" s="5">
+        <v>70</v>
+      </c>
+      <c r="F150" s="5">
+        <v>80</v>
+      </c>
+      <c r="G150" s="5">
+        <v>89</v>
+      </c>
+      <c r="H150" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I150" s="5"/>
+      <c r="J150" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="5">
+        <v>23</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E151" s="5">
+        <v>83</v>
+      </c>
+      <c r="F151" s="5">
+        <v>94</v>
+      </c>
+      <c r="G151" s="5">
+        <v>105</v>
+      </c>
+      <c r="H151" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I151" s="5"/>
+      <c r="J151" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="5">
+        <v>49</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E152" s="5">
+        <v>12</v>
+      </c>
+      <c r="F152" s="5">
+        <v>17</v>
+      </c>
+      <c r="G152" s="5">
+        <v>25</v>
+      </c>
+      <c r="H152" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I152" s="5"/>
+      <c r="J152" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="5">
+        <v>49</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E153" s="5">
+        <v>45</v>
+      </c>
+      <c r="F153" s="5">
+        <v>60</v>
+      </c>
+      <c r="G153" s="5">
+        <v>70</v>
+      </c>
+      <c r="H153" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I153" s="5"/>
+      <c r="J153" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="5">
+        <v>49</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" s="5">
+        <v>45</v>
+      </c>
+      <c r="F154" s="5">
+        <v>60</v>
+      </c>
+      <c r="G154" s="5">
+        <v>70</v>
+      </c>
+      <c r="H154" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I154" s="5">
+        <v>2</v>
+      </c>
+      <c r="J154" s="108">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="5">
+        <v>49</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E155" s="5">
+        <v>70</v>
+      </c>
+      <c r="F155" s="5">
+        <v>80</v>
+      </c>
+      <c r="G155" s="5">
+        <v>89</v>
+      </c>
+      <c r="H155" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I155" s="5"/>
+      <c r="J155" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="5">
+        <v>49</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E156" s="5">
+        <v>83</v>
+      </c>
+      <c r="F156" s="5">
+        <v>94</v>
+      </c>
+      <c r="G156" s="5">
+        <v>105</v>
+      </c>
+      <c r="H156" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I156" s="5"/>
+      <c r="J156" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" s="5">
+        <v>34</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E157" s="5">
+        <v>12</v>
+      </c>
+      <c r="F157" s="5">
+        <v>17</v>
+      </c>
+      <c r="G157" s="5">
+        <v>25</v>
+      </c>
+      <c r="H157" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I157" s="5"/>
+      <c r="J157" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" s="5">
+        <v>34</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E158" s="5">
+        <v>45</v>
+      </c>
+      <c r="F158" s="5">
+        <v>60</v>
+      </c>
+      <c r="G158" s="5">
+        <v>70</v>
+      </c>
+      <c r="H158" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I158" s="5"/>
+      <c r="J158" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="5">
+        <v>34</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E159" s="5">
+        <v>45</v>
+      </c>
+      <c r="F159" s="5">
+        <v>60</v>
+      </c>
+      <c r="G159" s="5">
+        <v>70</v>
+      </c>
+      <c r="H159" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I159" s="5"/>
+      <c r="J159" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="5">
+        <v>34</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E160" s="5">
+        <v>70</v>
+      </c>
+      <c r="F160" s="5">
+        <v>80</v>
+      </c>
+      <c r="G160" s="5">
+        <v>89</v>
+      </c>
+      <c r="H160" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I160" s="5"/>
+      <c r="J160" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="5">
+        <v>34</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E161" s="5">
+        <v>83</v>
+      </c>
+      <c r="F161" s="5">
+        <v>94</v>
+      </c>
+      <c r="G161" s="5">
+        <v>105</v>
+      </c>
+      <c r="H161" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I161" s="5"/>
+      <c r="J161" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="5">
+        <v>107</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E162" s="5">
+        <v>12</v>
+      </c>
+      <c r="F162" s="5">
+        <v>17</v>
+      </c>
+      <c r="G162" s="5">
+        <v>25</v>
+      </c>
+      <c r="H162" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I162" s="5"/>
+      <c r="J162" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="5">
+        <v>107</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E163" s="5">
+        <v>45</v>
+      </c>
+      <c r="F163" s="5">
+        <v>60</v>
+      </c>
+      <c r="G163" s="5">
+        <v>70</v>
+      </c>
+      <c r="H163" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I163" s="5"/>
+      <c r="J163" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="5">
+        <v>107</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" s="5">
+        <v>45</v>
+      </c>
+      <c r="F164" s="5">
+        <v>60</v>
+      </c>
+      <c r="G164" s="5">
+        <v>70</v>
+      </c>
+      <c r="H164" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I164" s="5"/>
+      <c r="J164" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="5">
+        <v>107</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E165" s="5">
+        <v>70</v>
+      </c>
+      <c r="F165" s="5">
+        <v>80</v>
+      </c>
+      <c r="G165" s="5">
+        <v>89</v>
+      </c>
+      <c r="H165" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I165" s="5"/>
+      <c r="J165" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="5">
+        <v>107</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E166" s="5">
+        <v>83</v>
+      </c>
+      <c r="F166" s="5">
+        <v>94</v>
+      </c>
+      <c r="G166" s="5">
+        <v>105</v>
+      </c>
+      <c r="H166" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I166" s="5"/>
+      <c r="J166" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="5">
+        <v>21</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E167" s="5">
+        <v>12</v>
+      </c>
+      <c r="F167" s="5">
+        <v>17</v>
+      </c>
+      <c r="G167" s="5">
+        <v>25</v>
+      </c>
+      <c r="H167" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I167" s="5"/>
+      <c r="J167" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="5">
+        <v>21</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E168" s="5">
+        <v>45</v>
+      </c>
+      <c r="F168" s="5">
+        <v>60</v>
+      </c>
+      <c r="G168" s="5">
+        <v>70</v>
+      </c>
+      <c r="H168" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I168" s="5"/>
+      <c r="J168" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="5">
+        <v>21</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E169" s="5">
+        <v>45</v>
+      </c>
+      <c r="F169" s="5">
+        <v>60</v>
+      </c>
+      <c r="G169" s="5">
+        <v>70</v>
+      </c>
+      <c r="H169" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I169" s="5"/>
+      <c r="J169" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="5">
+        <v>21</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E170" s="5">
+        <v>70</v>
+      </c>
+      <c r="F170" s="5">
+        <v>80</v>
+      </c>
+      <c r="G170" s="5">
+        <v>89</v>
+      </c>
+      <c r="H170" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I170" s="5"/>
+      <c r="J170" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" s="5">
+        <v>21</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E171" s="5">
+        <v>83</v>
+      </c>
+      <c r="F171" s="5">
+        <v>94</v>
+      </c>
+      <c r="G171" s="5">
+        <v>105</v>
+      </c>
+      <c r="H171" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I171" s="5"/>
+      <c r="J171" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" s="5">
+        <v>18</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E172" s="5">
+        <v>12</v>
+      </c>
+      <c r="F172" s="5">
+        <v>17</v>
+      </c>
+      <c r="G172" s="5">
+        <v>25</v>
+      </c>
+      <c r="H172" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I172" s="5"/>
+      <c r="J172" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" s="5">
+        <v>18</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E173" s="5">
+        <v>45</v>
+      </c>
+      <c r="F173" s="5">
+        <v>60</v>
+      </c>
+      <c r="G173" s="5">
+        <v>70</v>
+      </c>
+      <c r="H173" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I173" s="5"/>
+      <c r="J173" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="5">
+        <v>18</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E174" s="5">
+        <v>45</v>
+      </c>
+      <c r="F174" s="5">
+        <v>60</v>
+      </c>
+      <c r="G174" s="5">
+        <v>70</v>
+      </c>
+      <c r="H174" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I174" s="5"/>
+      <c r="J174" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="5">
+        <v>18</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E175" s="5">
+        <v>70</v>
+      </c>
+      <c r="F175" s="5">
+        <v>80</v>
+      </c>
+      <c r="G175" s="5">
+        <v>89</v>
+      </c>
+      <c r="H175" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I175" s="5"/>
+      <c r="J175" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="5">
+        <v>18</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E176" s="5">
+        <v>83</v>
+      </c>
+      <c r="F176" s="5">
+        <v>94</v>
+      </c>
+      <c r="G176" s="5">
+        <v>105</v>
+      </c>
+      <c r="H176" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I176" s="5"/>
+      <c r="J176" s="108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C177" s="5">
+        <v>32</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E177" s="5">
+        <v>12</v>
+      </c>
+      <c r="F177" s="5">
+        <v>17</v>
+      </c>
+      <c r="G177" s="5">
+        <v>25</v>
+      </c>
+      <c r="H177" s="108">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I177" s="5">
+        <v>10</v>
+      </c>
+      <c r="J177" s="108">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C178" s="5">
+        <v>32</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E178" s="5">
+        <v>45</v>
+      </c>
+      <c r="F178" s="5">
+        <v>60</v>
+      </c>
+      <c r="G178" s="5">
+        <v>70</v>
+      </c>
+      <c r="H178" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I178" s="5">
+        <v>5</v>
+      </c>
+      <c r="J178" s="108">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" s="5">
+        <v>32</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E179" s="5">
+        <v>45</v>
+      </c>
+      <c r="F179" s="5">
+        <v>60</v>
+      </c>
+      <c r="G179" s="5">
+        <v>70</v>
+      </c>
+      <c r="H179" s="108">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I179" s="5">
+        <v>4</v>
+      </c>
+      <c r="J179" s="108">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" s="5">
+        <v>32</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E180" s="5">
+        <v>70</v>
+      </c>
+      <c r="F180" s="5">
+        <v>80</v>
+      </c>
+      <c r="G180" s="5">
+        <v>89</v>
+      </c>
+      <c r="H180" s="108">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I180" s="5">
+        <v>5</v>
+      </c>
+      <c r="J180" s="108">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="104">
+        <v>44610</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C181" s="5">
+        <v>32</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E181" s="5">
+        <v>83</v>
+      </c>
+      <c r="F181" s="5">
+        <v>94</v>
+      </c>
+      <c r="G181" s="5">
+        <v>105</v>
+      </c>
+      <c r="H181" s="108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I181" s="5">
+        <v>6</v>
+      </c>
+      <c r="J181" s="108">
+        <f t="shared" si="5"/>
+        <v>564</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>

--- a/網路商城_2022_02月統計表.xlsx
+++ b/網路商城_2022_02月統計表.xlsx
@@ -2205,11 +2205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149566464"/>
-        <c:axId val="145943936"/>
+        <c:axId val="130733568"/>
+        <c:axId val="154423232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149566464"/>
+        <c:axId val="130733568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2231,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145943936"/>
+        <c:crossAx val="154423232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2239,7 +2239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145943936"/>
+        <c:axId val="154423232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2263,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149566464"/>
+        <c:crossAx val="130733568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2640,11 +2640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150510912"/>
-        <c:axId val="154443776"/>
+        <c:axId val="140107776"/>
+        <c:axId val="140108352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150510912"/>
+        <c:axId val="140107776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,12 +2688,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154443776"/>
+        <c:crossAx val="140108352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154443776"/>
+        <c:axId val="140108352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2745,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150510912"/>
+        <c:crossAx val="140107776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2942,11 +2942,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="136634368"/>
-        <c:axId val="154446656"/>
+        <c:axId val="146095616"/>
+        <c:axId val="140111232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136634368"/>
+        <c:axId val="146095616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154446656"/>
+        <c:crossAx val="140111232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2976,7 +2976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154446656"/>
+        <c:axId val="140111232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136634368"/>
+        <c:crossAx val="146095616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3199,11 +3199,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="136636928"/>
-        <c:axId val="154448384"/>
+        <c:axId val="146276864"/>
+        <c:axId val="140112960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136636928"/>
+        <c:axId val="146276864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3225,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154448384"/>
+        <c:crossAx val="140112960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3233,7 +3233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154448384"/>
+        <c:axId val="140112960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136636928"/>
+        <c:crossAx val="146276864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3647,11 +3647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154450112"/>
-        <c:axId val="154450688"/>
+        <c:axId val="140114688"/>
+        <c:axId val="140115264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154450112"/>
+        <c:axId val="140114688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3695,12 +3695,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154450688"/>
+        <c:crossAx val="140115264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154450688"/>
+        <c:axId val="140115264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,7 +3752,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154450112"/>
+        <c:crossAx val="140114688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4060,11 +4060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145946240"/>
-        <c:axId val="145946816"/>
+        <c:axId val="154425536"/>
+        <c:axId val="154426112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145946240"/>
+        <c:axId val="154425536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,12 +4135,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145946816"/>
+        <c:crossAx val="154426112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145946816"/>
+        <c:axId val="154426112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4207,7 +4207,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145946240"/>
+        <c:crossAx val="154425536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4543,11 +4543,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="154207232"/>
-        <c:axId val="145945664"/>
+        <c:axId val="132296192"/>
+        <c:axId val="139919936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154207232"/>
+        <c:axId val="132296192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4569,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145945664"/>
+        <c:crossAx val="139919936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4577,7 +4577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145945664"/>
+        <c:axId val="139919936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4587,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154207232"/>
+        <c:crossAx val="132296192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4870,8 +4870,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154209280"/>
-        <c:axId val="145614528"/>
+        <c:axId val="139879424"/>
+        <c:axId val="154424960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4997,11 +4997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154209792"/>
-        <c:axId val="145615104"/>
+        <c:axId val="136635904"/>
+        <c:axId val="139922240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154209280"/>
+        <c:axId val="139879424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5023,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145614528"/>
+        <c:crossAx val="154424960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5031,7 +5031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145614528"/>
+        <c:axId val="154424960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5055,13 +5055,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154209280"/>
+        <c:crossAx val="139879424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145615104"/>
+        <c:axId val="139922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,13 +5084,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154209792"/>
+        <c:crossAx val="136635904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="154209792"/>
+        <c:axId val="136635904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,7 +5099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145615104"/>
+        <c:crossAx val="139922240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5384,8 +5384,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150690304"/>
-        <c:axId val="145617984"/>
+        <c:axId val="144372224"/>
+        <c:axId val="139925120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5546,11 +5546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150688256"/>
-        <c:axId val="145617408"/>
+        <c:axId val="139881984"/>
+        <c:axId val="139924544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150688256"/>
+        <c:axId val="139881984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5572,7 +5572,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145617408"/>
+        <c:crossAx val="139924544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5580,7 +5580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145617408"/>
+        <c:axId val="139924544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5604,12 +5604,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150688256"/>
+        <c:crossAx val="139881984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145617984"/>
+        <c:axId val="139925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5632,12 +5632,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150690304"/>
+        <c:crossAx val="144372224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="150690304"/>
+        <c:axId val="144372224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,7 +5646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145617984"/>
+        <c:crossAx val="139925120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5886,11 +5886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150691328"/>
-        <c:axId val="145620288"/>
+        <c:axId val="144375296"/>
+        <c:axId val="140034048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150691328"/>
+        <c:axId val="144375296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5912,7 +5912,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145620288"/>
+        <c:crossAx val="140034048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5920,7 +5920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145620288"/>
+        <c:axId val="140034048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5944,7 +5944,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150691328"/>
+        <c:crossAx val="144375296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6108,11 +6108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154630656"/>
-        <c:axId val="150504576"/>
+        <c:axId val="145543680"/>
+        <c:axId val="140035776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="154630656"/>
+        <c:axId val="145543680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6135,7 +6135,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150504576"/>
+        <c:crossAx val="140035776"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6144,7 +6144,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150504576"/>
+        <c:axId val="140035776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6169,7 +6169,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154630656"/>
+        <c:crossAx val="145543680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6377,11 +6377,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="150688768"/>
-        <c:axId val="150506880"/>
+        <c:axId val="145545216"/>
+        <c:axId val="140037504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150688768"/>
+        <c:axId val="145545216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,7 +6403,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150506880"/>
+        <c:crossAx val="140037504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6411,7 +6411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150506880"/>
+        <c:axId val="140037504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6421,7 +6421,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150688768"/>
+        <c:crossAx val="145545216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6634,11 +6634,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="154753536"/>
-        <c:axId val="150509184"/>
+        <c:axId val="146092032"/>
+        <c:axId val="140040384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154753536"/>
+        <c:axId val="146092032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6660,7 +6660,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150509184"/>
+        <c:crossAx val="140040384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6668,7 +6668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150509184"/>
+        <c:axId val="140040384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,7 +6678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154753536"/>
+        <c:crossAx val="146092032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9413,7 +9413,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N180" sqref="N180"/>
+      <selection pane="bottomLeft" activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14702,10 +14702,12 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I162" s="5"/>
+      <c r="I162" s="5">
+        <v>10</v>
+      </c>
       <c r="J162" s="108">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">

--- a/網路商城_2022_02月統計表.xlsx
+++ b/網路商城_2022_02月統計表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2400" windowWidth="15600" windowHeight="7560" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="2445" windowWidth="15600" windowHeight="7515" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="12月-銷售額&amp;利潤" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2205,11 +2205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130733568"/>
-        <c:axId val="154423232"/>
+        <c:axId val="125733376"/>
+        <c:axId val="127455744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130733568"/>
+        <c:axId val="125733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2231,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154423232"/>
+        <c:crossAx val="127455744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2239,7 +2239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154423232"/>
+        <c:axId val="127455744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2263,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130733568"/>
+        <c:crossAx val="125733376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2640,11 +2640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140107776"/>
-        <c:axId val="140108352"/>
+        <c:axId val="141967360"/>
+        <c:axId val="141967936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140107776"/>
+        <c:axId val="141967360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,12 +2688,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140108352"/>
+        <c:crossAx val="141967936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140108352"/>
+        <c:axId val="141967936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2745,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140107776"/>
+        <c:crossAx val="141967360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2942,11 +2942,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="146095616"/>
-        <c:axId val="140111232"/>
+        <c:axId val="115458048"/>
+        <c:axId val="141970816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146095616"/>
+        <c:axId val="115458048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +2968,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140111232"/>
+        <c:crossAx val="141970816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2976,7 +2976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140111232"/>
+        <c:axId val="141970816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146095616"/>
+        <c:crossAx val="115458048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3199,11 +3199,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="146276864"/>
-        <c:axId val="140112960"/>
+        <c:axId val="115459584"/>
+        <c:axId val="141972544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146276864"/>
+        <c:axId val="115459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3225,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140112960"/>
+        <c:crossAx val="141972544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3233,7 +3233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140112960"/>
+        <c:axId val="141972544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146276864"/>
+        <c:crossAx val="115459584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3647,11 +3647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140114688"/>
-        <c:axId val="140115264"/>
+        <c:axId val="141974272"/>
+        <c:axId val="141974848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140114688"/>
+        <c:axId val="141974272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3695,12 +3695,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140115264"/>
+        <c:crossAx val="141974848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140115264"/>
+        <c:axId val="141974848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,7 +3752,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140114688"/>
+        <c:crossAx val="141974272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4060,11 +4060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154425536"/>
-        <c:axId val="154426112"/>
+        <c:axId val="127458048"/>
+        <c:axId val="127458624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154425536"/>
+        <c:axId val="127458048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,12 +4135,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154426112"/>
+        <c:crossAx val="127458624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154426112"/>
+        <c:axId val="127458624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4207,7 +4207,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154425536"/>
+        <c:crossAx val="127458048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4543,11 +4543,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="132296192"/>
-        <c:axId val="139919936"/>
+        <c:axId val="126455808"/>
+        <c:axId val="126313600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132296192"/>
+        <c:axId val="126455808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4569,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139919936"/>
+        <c:crossAx val="126313600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4577,7 +4577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139919936"/>
+        <c:axId val="126313600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4587,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132296192"/>
+        <c:crossAx val="126455808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4716,6 +4716,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4870,8 +4871,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139879424"/>
-        <c:axId val="154424960"/>
+        <c:axId val="126457856"/>
+        <c:axId val="126315328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4997,11 +4998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136635904"/>
-        <c:axId val="139922240"/>
+        <c:axId val="126458368"/>
+        <c:axId val="126315904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139879424"/>
+        <c:axId val="126457856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5024,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154424960"/>
+        <c:crossAx val="126315328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5031,7 +5032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154424960"/>
+        <c:axId val="126315328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5055,13 +5056,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139879424"/>
+        <c:crossAx val="126457856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139922240"/>
+        <c:axId val="126315904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,13 +5085,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136635904"/>
+        <c:crossAx val="126458368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="136635904"/>
+        <c:axId val="126458368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,7 +5100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139922240"/>
+        <c:crossAx val="126315904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5384,8 +5385,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144372224"/>
-        <c:axId val="139925120"/>
+        <c:axId val="127161856"/>
+        <c:axId val="126318784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5546,11 +5547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139881984"/>
-        <c:axId val="139924544"/>
+        <c:axId val="126456832"/>
+        <c:axId val="126318208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139881984"/>
+        <c:axId val="126456832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5572,7 +5573,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139924544"/>
+        <c:crossAx val="126318208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5580,7 +5581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139924544"/>
+        <c:axId val="126318208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5604,12 +5605,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139881984"/>
+        <c:crossAx val="126456832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139925120"/>
+        <c:axId val="126318784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5632,12 +5633,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144372224"/>
+        <c:crossAx val="127161856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="144372224"/>
+        <c:axId val="127161856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,7 +5647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139925120"/>
+        <c:crossAx val="126318784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5886,11 +5887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144375296"/>
-        <c:axId val="140034048"/>
+        <c:axId val="127162880"/>
+        <c:axId val="94667904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144375296"/>
+        <c:axId val="127162880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5912,7 +5913,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140034048"/>
+        <c:crossAx val="94667904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5920,7 +5921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140034048"/>
+        <c:axId val="94667904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5944,7 +5945,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144375296"/>
+        <c:crossAx val="127162880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6108,11 +6109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145543680"/>
-        <c:axId val="140035776"/>
+        <c:axId val="129709568"/>
+        <c:axId val="94669056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="145543680"/>
+        <c:axId val="129709568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6135,7 +6136,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140035776"/>
+        <c:crossAx val="94669056"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6144,7 +6145,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="140035776"/>
+        <c:axId val="94669056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -6169,7 +6170,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145543680"/>
+        <c:crossAx val="129709568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -6377,11 +6378,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="145545216"/>
-        <c:axId val="140037504"/>
+        <c:axId val="129710080"/>
+        <c:axId val="94671360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145545216"/>
+        <c:axId val="129710080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,7 +6404,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140037504"/>
+        <c:crossAx val="94671360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6411,7 +6412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140037504"/>
+        <c:axId val="94671360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6421,7 +6422,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145545216"/>
+        <c:crossAx val="129710080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6634,11 +6635,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="146092032"/>
-        <c:axId val="140040384"/>
+        <c:axId val="139314688"/>
+        <c:axId val="94673088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146092032"/>
+        <c:axId val="139314688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6660,7 +6661,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140040384"/>
+        <c:crossAx val="94673088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6668,7 +6669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140040384"/>
+        <c:axId val="94673088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,7 +6679,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146092032"/>
+        <c:crossAx val="139314688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9412,8 +9413,8 @@
   <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I163" sqref="I163"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -15664,7 +15665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>

--- a/網路商城_2022_02月統計表.xlsx
+++ b/網路商城_2022_02月統計表.xlsx
@@ -34,7 +34,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="98" r:id="rId17"/>
+    <pivotCache cacheId="54" r:id="rId17"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="254">
   <si>
     <t>第一周</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,6 +978,38 @@
     <t>雙色饅頭</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>太極石淨白面膜</t>
+  </si>
+  <si>
+    <t>太極石淨白面膜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q18魚膠原蛋白</t>
+  </si>
+  <si>
+    <t>Q18魚膠原蛋白</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五告順晶纖凍</t>
+  </si>
+  <si>
+    <t>五告順晶纖凍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>太極石馬油滋養霜</t>
+  </si>
+  <si>
+    <t>太極石馬油滋養霜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊梅金山</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1668,7 +1700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2029,6 +2061,54 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,111 +2178,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2432,6 +2412,55 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2633,11 +2662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93510656"/>
-        <c:axId val="126242176"/>
+        <c:axId val="155201536"/>
+        <c:axId val="163062336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93510656"/>
+        <c:axId val="155201536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2688,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126242176"/>
+        <c:crossAx val="163062336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2667,7 +2696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126242176"/>
+        <c:axId val="163062336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,7 +2720,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93510656"/>
+        <c:crossAx val="155201536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2888,11 +2917,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="114501632"/>
-        <c:axId val="136514944"/>
+        <c:axId val="39002112"/>
+        <c:axId val="164713536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114501632"/>
+        <c:axId val="39002112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2914,7 +2943,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136514944"/>
+        <c:crossAx val="164713536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2922,7 +2951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136514944"/>
+        <c:axId val="164713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2932,7 +2961,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114501632"/>
+        <c:crossAx val="39002112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3145,11 +3174,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="124843520"/>
-        <c:axId val="136516672"/>
+        <c:axId val="39003136"/>
+        <c:axId val="164978688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124843520"/>
+        <c:axId val="39003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3200,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136516672"/>
+        <c:crossAx val="164978688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3179,7 +3208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136516672"/>
+        <c:axId val="164978688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3189,7 +3218,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124843520"/>
+        <c:crossAx val="39003136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3593,11 +3622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136518400"/>
-        <c:axId val="136518976"/>
+        <c:axId val="164980416"/>
+        <c:axId val="164980992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136518400"/>
+        <c:axId val="164980416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,12 +3670,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136518976"/>
+        <c:crossAx val="164980992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136518976"/>
+        <c:axId val="164980992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3727,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136518400"/>
+        <c:crossAx val="164980416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3895,11 +3924,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="114499584"/>
-        <c:axId val="93653248"/>
+        <c:axId val="39004672"/>
+        <c:axId val="164983872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114499584"/>
+        <c:axId val="39004672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +3950,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93653248"/>
+        <c:crossAx val="164983872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3929,7 +3958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93653248"/>
+        <c:axId val="164983872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +3968,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114499584"/>
+        <c:crossAx val="39004672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4152,11 +4181,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="125232640"/>
-        <c:axId val="93654976"/>
+        <c:axId val="39005696"/>
+        <c:axId val="164985600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125232640"/>
+        <c:axId val="39005696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4178,7 +4207,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93654976"/>
+        <c:crossAx val="164985600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4186,7 +4215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93654976"/>
+        <c:axId val="164985600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4225,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125232640"/>
+        <c:crossAx val="39005696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4600,11 +4629,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93656704"/>
-        <c:axId val="93657280"/>
+        <c:axId val="165151296"/>
+        <c:axId val="165151872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93656704"/>
+        <c:axId val="165151296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4648,12 +4677,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93657280"/>
+        <c:crossAx val="165151872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93657280"/>
+        <c:axId val="165151872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +4734,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93656704"/>
+        <c:crossAx val="165151296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4759,7 +4788,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -4787,7 +4815,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -4928,25 +4955,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3246618106139446E-3</c:v>
+                  <c:v>6.1051755237963093E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0433260807870588E-2</c:v>
+                  <c:v>1.4985430831136395E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8300066218900765E-2</c:v>
+                  <c:v>7.9644789787706394E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12742408476019298</c:v>
+                  <c:v>0.10566116275842931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14719515656040111</c:v>
+                  <c:v>0.10795060357985292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3002554157600984</c:v>
+                  <c:v>0.29492160399611489</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32806735408192222</c:v>
+                  <c:v>0.39073123352296379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5124,7 +5151,7 @@
                   <c:v>6092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4479</c:v>
+                  <c:v>8322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5142,11 +5169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142501888"/>
-        <c:axId val="114821952"/>
+        <c:axId val="165304320"/>
+        <c:axId val="165155328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142501888"/>
+        <c:axId val="165304320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5155,7 +5182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114821952"/>
+        <c:crossAx val="165155328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5163,7 +5190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114821952"/>
+        <c:axId val="165155328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,7 +5207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142501888"/>
+        <c:crossAx val="165304320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5295,7 +5322,6 @@
         <c:idx val="1"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -5320,7 +5346,6 @@
         <c:idx val="2"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -5345,7 +5370,6 @@
         <c:idx val="3"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -5456,7 +5480,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,11 +5498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270380544"/>
-        <c:axId val="326996480"/>
+        <c:axId val="165901824"/>
+        <c:axId val="165157056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270380544"/>
+        <c:axId val="165901824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5487,7 +5511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326996480"/>
+        <c:crossAx val="165157056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5495,7 +5519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326996480"/>
+        <c:axId val="165157056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5512,7 +5536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270380544"/>
+        <c:crossAx val="165901824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5714,34 +5738,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>玉米濃湯 </c:v>
+                  <c:v>海鮮焗飯</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>芋泥包</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>調理包_紅燒牛</c:v>
+                  <c:v>白醬培根義大利麵</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>滷味_豬耳朵</c:v>
+                  <c:v>番茄肉醬義大利麵</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>海鮮焗飯</c:v>
+                  <c:v>牛肉丸子燉飯 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>白醬培根義大利麵</c:v>
+                  <c:v>青醬雞肉燉飯</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>番茄肉醬義大利麵</c:v>
+                  <c:v>太極石馬油滋養霜</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>牛肉丸子燉飯 </c:v>
+                  <c:v>棒小子肉乾</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>青醬雞肉燉飯</c:v>
+                  <c:v>Q18魚膠原蛋白</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>棒小子肉乾</c:v>
+                  <c:v>五告順晶纖凍</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5753,34 +5777,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>493</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>528</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>576</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>585</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>660</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>660</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>720</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>752</c:v>
+                  <c:v>1222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1056</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5795,11 +5819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="273000960"/>
-        <c:axId val="289787264"/>
+        <c:axId val="165903872"/>
+        <c:axId val="166330368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="273000960"/>
+        <c:axId val="165903872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5808,7 +5832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289787264"/>
+        <c:crossAx val="166330368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5816,7 +5840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="289787264"/>
+        <c:axId val="166330368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5833,7 +5857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273000960"/>
+        <c:crossAx val="165903872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6155,11 +6179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126244480"/>
-        <c:axId val="126245056"/>
+        <c:axId val="163064640"/>
+        <c:axId val="163065216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126244480"/>
+        <c:axId val="163064640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6230,12 +6254,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126245056"/>
+        <c:crossAx val="163065216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126245056"/>
+        <c:axId val="163065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6302,7 +6326,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126244480"/>
+        <c:crossAx val="163064640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6384,8 +6408,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70505217038617207"/>
-          <c:y val="0.87399175333641377"/>
+          <c:x val="1.2745352080347884E-2"/>
+          <c:y val="0.86621004594188211"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6624,25 +6648,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3246618106139446E-3</c:v>
+                  <c:v>6.1051755237963093E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0433260807870588E-2</c:v>
+                  <c:v>1.4985430831136395E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8300066218900765E-2</c:v>
+                  <c:v>7.9644789787706394E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12742408476019298</c:v>
+                  <c:v>0.10566116275842931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14719515656040111</c:v>
+                  <c:v>0.10795060357985292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3002554157600984</c:v>
+                  <c:v>0.29492160399611489</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32806735408192222</c:v>
+                  <c:v>0.39073123352296379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6868,7 +6892,7 @@
                   <c:v>6092</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4479</c:v>
+                  <c:v>8322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6886,11 +6910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293091840"/>
-        <c:axId val="268180800"/>
+        <c:axId val="166225920"/>
+        <c:axId val="166333248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293091840"/>
+        <c:axId val="166225920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6899,7 +6923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268180800"/>
+        <c:crossAx val="166333248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6907,7 +6931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268180800"/>
+        <c:axId val="166333248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6924,7 +6948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293091840"/>
+        <c:crossAx val="166225920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7426,7 +7450,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7442,11 +7466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="272999936"/>
-        <c:axId val="268176768"/>
+        <c:axId val="166224896"/>
+        <c:axId val="166334976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="272999936"/>
+        <c:axId val="166224896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7455,7 +7479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268176768"/>
+        <c:crossAx val="166334976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7463,7 +7487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268176768"/>
+        <c:axId val="166334976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7480,7 +7504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272999936"/>
+        <c:crossAx val="166224896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7801,7 +7825,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7819,11 +7843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204714496"/>
-        <c:axId val="268174464"/>
+        <c:axId val="166227456"/>
+        <c:axId val="166336704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204714496"/>
+        <c:axId val="166227456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7832,7 +7856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268174464"/>
+        <c:crossAx val="166336704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7840,7 +7864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="268174464"/>
+        <c:axId val="166336704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7857,7 +7881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204714496"/>
+        <c:crossAx val="166227456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8180,11 +8204,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="95182848"/>
-        <c:axId val="127451136"/>
+        <c:axId val="171165184"/>
+        <c:axId val="163066944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95182848"/>
+        <c:axId val="171165184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8206,7 +8230,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127451136"/>
+        <c:crossAx val="163066944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8214,7 +8238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127451136"/>
+        <c:axId val="163066944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8224,7 +8248,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95182848"/>
+        <c:crossAx val="171165184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8353,7 +8377,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8508,8 +8531,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95184896"/>
-        <c:axId val="127452864"/>
+        <c:axId val="171573248"/>
+        <c:axId val="163069248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8635,11 +8658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95185408"/>
-        <c:axId val="127453440"/>
+        <c:axId val="171573760"/>
+        <c:axId val="92454912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95184896"/>
+        <c:axId val="171573248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8661,7 +8684,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127452864"/>
+        <c:crossAx val="163069248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8669,7 +8692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127452864"/>
+        <c:axId val="163069248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8693,13 +8716,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95184896"/>
+        <c:crossAx val="171573248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127453440"/>
+        <c:axId val="92454912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8722,13 +8745,13 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95185408"/>
+        <c:crossAx val="171573760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="95185408"/>
+        <c:axId val="171573760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127453440"/>
+        <c:crossAx val="92454912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9133,7 +9156,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9149,11 +9172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208591872"/>
-        <c:axId val="93887808"/>
+        <c:axId val="171574784"/>
+        <c:axId val="92457216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208591872"/>
+        <c:axId val="171574784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9162,7 +9185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93887808"/>
+        <c:crossAx val="92457216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9170,7 +9193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93887808"/>
+        <c:axId val="92457216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9187,7 +9210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208591872"/>
+        <c:crossAx val="171574784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9267,6 +9290,9 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout/>
@@ -9337,34 +9363,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>玉米濃湯 </c:v>
+                  <c:v>海鮮焗飯</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>芋泥包</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>調理包_紅燒牛</c:v>
+                  <c:v>白醬培根義大利麵</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>滷味_豬耳朵</c:v>
+                  <c:v>番茄肉醬義大利麵</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>海鮮焗飯</c:v>
+                  <c:v>牛肉丸子燉飯 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>白醬培根義大利麵</c:v>
+                  <c:v>青醬雞肉燉飯</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>番茄肉醬義大利麵</c:v>
+                  <c:v>太極石馬油滋養霜</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>牛肉丸子燉飯 </c:v>
+                  <c:v>棒小子肉乾</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>青醬雞肉燉飯</c:v>
+                  <c:v>Q18魚膠原蛋白</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>棒小子肉乾</c:v>
+                  <c:v>五告順晶纖凍</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9376,34 +9402,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>493</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>528</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>576</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>585</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>660</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>660</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>720</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>752</c:v>
+                  <c:v>1222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1056</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9418,11 +9444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204761088"/>
-        <c:axId val="195621952"/>
+        <c:axId val="171166720"/>
+        <c:axId val="92459520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204761088"/>
+        <c:axId val="171166720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9431,7 +9457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195621952"/>
+        <c:crossAx val="92459520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9439,7 +9465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195621952"/>
+        <c:axId val="92459520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9456,7 +9482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204761088"/>
+        <c:crossAx val="171166720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9725,8 +9751,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95516160"/>
-        <c:axId val="127456320"/>
+        <c:axId val="164590592"/>
+        <c:axId val="92461824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9887,11 +9913,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95183872"/>
-        <c:axId val="127455744"/>
+        <c:axId val="164589568"/>
+        <c:axId val="92461248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95183872"/>
+        <c:axId val="164589568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9913,7 +9939,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127455744"/>
+        <c:crossAx val="92461248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9921,7 +9947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127455744"/>
+        <c:axId val="92461248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9945,12 +9971,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95183872"/>
+        <c:crossAx val="164589568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127456320"/>
+        <c:axId val="92461824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9973,12 +9999,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95516160"/>
+        <c:crossAx val="164590592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="95516160"/>
+        <c:axId val="164590592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9987,7 +10013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127456320"/>
+        <c:crossAx val="92461824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10227,11 +10253,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95517184"/>
-        <c:axId val="127458624"/>
+        <c:axId val="165093376"/>
+        <c:axId val="164709504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95517184"/>
+        <c:axId val="165093376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10253,7 +10279,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127458624"/>
+        <c:crossAx val="164709504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10261,7 +10287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127458624"/>
+        <c:axId val="164709504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10285,7 +10311,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95517184"/>
+        <c:crossAx val="165093376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10449,11 +10475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114501120"/>
-        <c:axId val="136512640"/>
+        <c:axId val="165094912"/>
+        <c:axId val="164711232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114501120"/>
+        <c:axId val="165094912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10476,7 +10502,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136512640"/>
+        <c:crossAx val="164711232"/>
         <c:crossesAt val="300"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -10485,7 +10511,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="136512640"/>
+        <c:axId val="164711232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="300"/>
@@ -10510,7 +10536,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114501120"/>
+        <c:crossAx val="165094912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="150"/>
@@ -11205,8 +11231,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="日期 1"/>
@@ -11223,7 +11249,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11277,8 +11303,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="店家"/>
@@ -11295,7 +11321,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12256,9 +12282,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tomato-2012-11-2" refreshedDate="44613.629817592591" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="225">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tomato-2012-11-2" refreshedDate="44614.682496527777" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="261">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J226" sheet="product_information"/>
+    <worksheetSource ref="A1:J262" sheet="product_information"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="日期" numFmtId="14">
@@ -12282,10 +12308,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="人數" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="115"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="117"/>
     </cacheField>
     <cacheField name="品項" numFmtId="0">
-      <sharedItems count="23">
+      <sharedItems count="27">
         <s v="滷味_毛豆"/>
         <s v="滷味_豬耳朵"/>
         <s v="白醬培根義大利麵"/>
@@ -12309,25 +12335,29 @@
         <s v="奶皇包"/>
         <s v="芋泥包"/>
         <s v="雙色饅頭"/>
+        <s v="太極石淨白面膜"/>
+        <s v="Q18魚膠原蛋白"/>
+        <s v="五告順晶纖凍"/>
+        <s v="太極石馬油滋養霜"/>
       </sharedItems>
     </cacheField>
     <cacheField name="廠商進價" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="120"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="336"/>
     </cacheField>
     <cacheField name="加盟店進價" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="17" maxValue="176"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="17" maxValue="611"/>
     </cacheField>
     <cacheField name="建議售價" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="200"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="765"/>
     </cacheField>
     <cacheField name="利潤" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="56"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="293"/>
     </cacheField>
     <cacheField name="銷售量" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
     </cacheField>
     <cacheField name="銷售額" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="564"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1222"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -12339,7 +12369,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="225">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="261">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -15013,8 +15043,8 @@
     <n v="88"/>
     <n v="105"/>
     <n v="18"/>
-    <n v="1"/>
-    <n v="88"/>
+    <n v="2"/>
+    <n v="176"/>
   </r>
   <r>
     <x v="1"/>
@@ -15025,8 +15055,8 @@
     <n v="88"/>
     <n v="105"/>
     <n v="18"/>
-    <n v="1"/>
-    <n v="88"/>
+    <n v="2"/>
+    <n v="176"/>
   </r>
   <r>
     <x v="1"/>
@@ -15040,11 +15070,443 @@
     <n v="1"/>
     <n v="88"/>
   </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="39"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="39"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="39"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="39"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="76"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <n v="10"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="76"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="76"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <n v="1"/>
+    <n v="451"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="76"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <n v="2"/>
+    <n v="426"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="53"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="53"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="53"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="53"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="49"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="49"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="49"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="49"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="34"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="34"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="34"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="34"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="117"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="117"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="117"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="117"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <n v="2"/>
+    <n v="426"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="21"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="21"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="21"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="21"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="18"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="18"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="18"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="18"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <m/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="32"/>
+    <x v="23"/>
+    <n v="13"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="32"/>
+    <x v="24"/>
+    <n v="336"/>
+    <n v="611"/>
+    <n v="765"/>
+    <n v="275"/>
+    <n v="2"/>
+    <n v="1222"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="32"/>
+    <x v="25"/>
+    <n v="158"/>
+    <n v="451"/>
+    <n v="565"/>
+    <n v="293"/>
+    <n v="2"/>
+    <n v="902"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="32"/>
+    <x v="26"/>
+    <n v="85"/>
+    <n v="213"/>
+    <n v="269"/>
+    <n v="128"/>
+    <m/>
+    <n v="0"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" numFmtId="14" showAll="0">
@@ -15193,7 +15655,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0">
@@ -15220,7 +15682,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
-      <items count="24">
+      <items count="28">
         <item x="7"/>
         <item x="6"/>
         <item x="16"/>
@@ -15244,6 +15706,10 @@
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -15268,19 +15734,10 @@
   </rowFields>
   <rowItems count="11">
     <i>
-      <x v="3"/>
+      <x v="8"/>
     </i>
     <i>
       <x v="21"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i>
       <x v="4"/>
@@ -15295,7 +15752,16 @@
       <x v="6"/>
     </i>
     <i>
+      <x v="26"/>
+    </i>
+    <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
     </i>
     <i t="grand">
       <x/>
@@ -15355,7 +15821,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" showAll="0"/>
@@ -15484,7 +15950,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -15568,7 +16034,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="98" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -15705,21 +16171,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:J226" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:J226"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A1:J262" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J262"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="日期" dataDxfId="13"/>
-    <tableColumn id="2" name="店家" dataDxfId="12"/>
-    <tableColumn id="3" name="人數" dataDxfId="11"/>
-    <tableColumn id="4" name="品項" dataDxfId="10"/>
-    <tableColumn id="5" name="廠商進價" dataDxfId="9"/>
-    <tableColumn id="6" name="加盟店進價" dataDxfId="8"/>
-    <tableColumn id="7" name="建議售價" dataDxfId="7"/>
-    <tableColumn id="8" name="利潤" dataDxfId="6">
+    <tableColumn id="1" name="日期" dataDxfId="9"/>
+    <tableColumn id="2" name="店家" dataDxfId="8"/>
+    <tableColumn id="3" name="人數" dataDxfId="7"/>
+    <tableColumn id="4" name="品項" dataDxfId="6"/>
+    <tableColumn id="5" name="廠商進價" dataDxfId="5"/>
+    <tableColumn id="6" name="加盟店進價" dataDxfId="4"/>
+    <tableColumn id="7" name="建議售價" dataDxfId="3"/>
+    <tableColumn id="8" name="利潤" dataDxfId="2">
       <calculatedColumnFormula>F2-E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="銷售量" dataDxfId="5"/>
-    <tableColumn id="10" name="銷售額" dataDxfId="4">
+    <tableColumn id="9" name="銷售量" dataDxfId="1"/>
+    <tableColumn id="10" name="銷售額" dataDxfId="0">
       <calculatedColumnFormula>F2*I2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16039,27 +16505,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="138"/>
       <c r="I1" s="8"/>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="125"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="141"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -16286,26 +16752,26 @@
       <c r="R7" s="33"/>
     </row>
     <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="G8" s="126" t="s">
+      <c r="G8" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="128"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="144"/>
     </row>
     <row r="9" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="131"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="147"/>
     </row>
     <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="G10" s="36" t="s">
@@ -21908,7 +22374,7 @@
       <c r="B1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="120" t="s">
         <v>228</v>
       </c>
       <c r="B3" t="s">
@@ -21918,110 +22384,110 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="147">
+      <c r="B4" s="124">
         <v>0</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="147">
+      <c r="B5" s="124">
         <v>0</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="147">
+      <c r="B6" s="124">
         <v>0</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="147">
-        <v>8.3246618106139446E-3</v>
+      <c r="B7" s="124">
+        <v>6.1051755237963093E-3</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="147">
-        <v>2.0433260807870588E-2</v>
+      <c r="B8" s="124">
+        <v>1.4985430831136395E-2</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="147">
-        <v>6.8300066218900765E-2</v>
+      <c r="B9" s="124">
+        <v>7.9644789787706394E-2</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="147">
-        <v>0.12742408476019298</v>
+      <c r="B10" s="124">
+        <v>0.10566116275842931</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="147">
-        <v>0.14719515656040111</v>
+      <c r="B11" s="124">
+        <v>0.10795060357985292</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="147">
-        <v>0.3002554157600984</v>
+      <c r="B12" s="124">
+        <v>0.29492160399611489</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="147">
-        <v>0.32806735408192222</v>
+      <c r="B13" s="124">
+        <v>0.39073123352296379</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="147">
+      <c r="B14" s="124">
         <v>1</v>
       </c>
       <c r="C14"/>
@@ -22045,7 +22511,7 @@
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -22055,7 +22521,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="120" t="s">
         <v>228</v>
       </c>
       <c r="B3" t="s">
@@ -22063,27 +22529,27 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="144">
+      <c r="A4" s="121">
         <v>44603</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="122">
         <v>6092</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="144">
+      <c r="A5" s="121">
         <v>44610</v>
       </c>
-      <c r="B5" s="145">
-        <v>4479</v>
+      <c r="B5" s="122">
+        <v>8322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="145">
-        <v>10571</v>
+      <c r="B6" s="122">
+        <v>14414</v>
       </c>
     </row>
   </sheetData>
@@ -22098,7 +22564,7 @@
   <dimension ref="A3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -22109,7 +22575,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="120" t="s">
         <v>228</v>
       </c>
       <c r="B3" t="s">
@@ -22118,29 +22584,29 @@
       <c r="C3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="144">
+      <c r="A4" s="121">
         <v>44603</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="122">
         <v>108</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="144">
+      <c r="A5" s="121">
         <v>44610</v>
       </c>
-      <c r="B5" s="145">
-        <v>80</v>
+      <c r="B5" s="122">
+        <v>103</v>
       </c>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="145">
-        <v>188</v>
+      <c r="B6" s="122">
+        <v>211</v>
       </c>
       <c r="C6"/>
     </row>
@@ -22184,7 +22650,7 @@
   <dimension ref="R3:S3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -22193,12 +22659,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="18:19" ht="21" x14ac:dyDescent="0.25">
-      <c r="R3" s="148" t="s">
+      <c r="R3" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="S3" s="149">
+      <c r="S3" s="126">
         <f>每周銷售額!B6</f>
-        <v>10571</v>
+        <v>14414</v>
       </c>
     </row>
   </sheetData>
@@ -22542,11 +23008,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M248" sqref="M248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -22564,39 +23030,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="158" t="s">
+      <c r="D1" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="158" t="s">
+      <c r="E1" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="158" t="s">
+      <c r="F1" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="158" t="s">
+      <c r="H1" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="158" t="s">
+      <c r="I1" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="135" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="150">
+      <c r="A2" s="127">
         <v>44603</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -22624,13 +23090,13 @@
       <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="J2" s="151">
+      <c r="J2" s="128">
         <f>F2*I2</f>
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="150">
+      <c r="A3" s="127">
         <v>44603</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -22658,13 +23124,13 @@
       <c r="I3" s="5">
         <v>4</v>
       </c>
-      <c r="J3" s="151">
+      <c r="J3" s="128">
         <f t="shared" ref="J3:J66" si="1">F3*I3</f>
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="150">
+      <c r="A4" s="127">
         <v>44603</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -22690,13 +23156,13 @@
         <v>7</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="151">
+      <c r="J4" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="150">
+      <c r="A5" s="127">
         <v>44603</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -22722,13 +23188,13 @@
         <v>7</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="151">
+      <c r="J5" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="150">
+      <c r="A6" s="127">
         <v>44603</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -22754,13 +23220,13 @@
         <v>14</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="151">
+      <c r="J6" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="150">
+      <c r="A7" s="127">
         <v>44603</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -22788,13 +23254,13 @@
       <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="151">
+      <c r="J7" s="128">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="150">
+      <c r="A8" s="127">
         <v>44603</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -22822,13 +23288,13 @@
       <c r="I8" s="5">
         <v>12</v>
       </c>
-      <c r="J8" s="151">
+      <c r="J8" s="128">
         <f t="shared" si="1"/>
         <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="150">
+      <c r="A9" s="127">
         <v>44603</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -22856,13 +23322,13 @@
       <c r="I9" s="5">
         <v>7</v>
       </c>
-      <c r="J9" s="151">
+      <c r="J9" s="128">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="150">
+      <c r="A10" s="127">
         <v>44603</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -22888,13 +23354,13 @@
         <v>14</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="151">
+      <c r="J10" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="150">
+      <c r="A11" s="127">
         <v>44603</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -22922,13 +23388,13 @@
       <c r="I11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="151">
+      <c r="J11" s="128">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="150">
+      <c r="A12" s="127">
         <v>44603</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -22956,13 +23422,13 @@
       <c r="I12" s="5">
         <v>5</v>
       </c>
-      <c r="J12" s="151">
+      <c r="J12" s="128">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="150">
+      <c r="A13" s="127">
         <v>44603</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -22990,13 +23456,13 @@
       <c r="I13" s="5">
         <v>10</v>
       </c>
-      <c r="J13" s="151">
+      <c r="J13" s="128">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="150">
+      <c r="A14" s="127">
         <v>44603</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -23024,13 +23490,13 @@
       <c r="I14" s="5">
         <v>2</v>
       </c>
-      <c r="J14" s="151">
+      <c r="J14" s="128">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="150">
+      <c r="A15" s="127">
         <v>44603</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -23058,13 +23524,13 @@
       <c r="I15" s="5">
         <v>5</v>
       </c>
-      <c r="J15" s="151">
+      <c r="J15" s="128">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="150">
+      <c r="A16" s="127">
         <v>44603</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -23092,13 +23558,13 @@
       <c r="I16" s="5">
         <v>3</v>
       </c>
-      <c r="J16" s="151">
+      <c r="J16" s="128">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="150">
+      <c r="A17" s="127">
         <v>44603</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -23126,13 +23592,13 @@
       <c r="I17" s="5">
         <v>3</v>
       </c>
-      <c r="J17" s="151">
+      <c r="J17" s="128">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="150">
+      <c r="A18" s="127">
         <v>44603</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -23158,13 +23624,13 @@
         <v>14</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="151">
+      <c r="J18" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="150">
+      <c r="A19" s="127">
         <v>44603</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -23190,13 +23656,13 @@
         <v>11</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="151">
+      <c r="J19" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="150">
+      <c r="A20" s="127">
         <v>44603</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -23222,13 +23688,13 @@
         <v>7</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="151">
+      <c r="J20" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="150">
+      <c r="A21" s="127">
         <v>44603</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -23254,13 +23720,13 @@
         <v>7</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="151">
+      <c r="J21" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="150">
+      <c r="A22" s="127">
         <v>44603</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -23286,13 +23752,13 @@
         <v>14</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="151">
+      <c r="J22" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="150">
+      <c r="A23" s="127">
         <v>44603</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -23318,13 +23784,13 @@
         <v>11</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="151">
+      <c r="J23" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="150">
+      <c r="A24" s="127">
         <v>44603</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -23350,13 +23816,13 @@
         <v>7</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="151">
+      <c r="J24" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="150">
+      <c r="A25" s="127">
         <v>44603</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -23382,13 +23848,13 @@
         <v>7</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="151">
+      <c r="J25" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="150">
+      <c r="A26" s="127">
         <v>44603</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -23414,13 +23880,13 @@
         <v>14</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="151">
+      <c r="J26" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="150">
+      <c r="A27" s="127">
         <v>44603</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -23446,13 +23912,13 @@
         <v>11</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="151">
+      <c r="J27" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="150">
+      <c r="A28" s="127">
         <v>44603</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -23478,13 +23944,13 @@
         <v>7</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="151">
+      <c r="J28" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="150">
+      <c r="A29" s="127">
         <v>44603</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -23510,13 +23976,13 @@
         <v>7</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="151">
+      <c r="J29" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="150">
+      <c r="A30" s="127">
         <v>44603</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -23542,13 +24008,13 @@
         <v>14</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="151">
+      <c r="J30" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="150">
+      <c r="A31" s="127">
         <v>44603</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -23574,13 +24040,13 @@
         <v>11</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="151">
+      <c r="J31" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="150">
+      <c r="A32" s="127">
         <v>44603</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -23606,13 +24072,13 @@
         <v>7</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="151">
+      <c r="J32" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="150">
+      <c r="A33" s="127">
         <v>44603</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -23638,13 +24104,13 @@
         <v>7</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="151">
+      <c r="J33" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="150">
+      <c r="A34" s="127">
         <v>44603</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -23670,13 +24136,13 @@
         <v>14</v>
       </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="151">
+      <c r="J34" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="150">
+      <c r="A35" s="127">
         <v>44603</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -23702,13 +24168,13 @@
         <v>11</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="151">
+      <c r="J35" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="150">
+      <c r="A36" s="127">
         <v>44603</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -23734,13 +24200,13 @@
         <v>7</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="151">
+      <c r="J36" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="150">
+      <c r="A37" s="127">
         <v>44603</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -23766,13 +24232,13 @@
         <v>7</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="151">
+      <c r="J37" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="150">
+      <c r="A38" s="127">
         <v>44603</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -23798,13 +24264,13 @@
         <v>14</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="151">
+      <c r="J38" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="150">
+      <c r="A39" s="127">
         <v>44603</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -23830,13 +24296,13 @@
         <v>11</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="151">
+      <c r="J39" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="150">
+      <c r="A40" s="127">
         <v>44603</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -23862,13 +24328,13 @@
         <v>7</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="151">
+      <c r="J40" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="150">
+      <c r="A41" s="127">
         <v>44603</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -23894,13 +24360,13 @@
         <v>7</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="151">
+      <c r="J41" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="150">
+      <c r="A42" s="127">
         <v>44603</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -23926,13 +24392,13 @@
         <v>40</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="151">
+      <c r="J42" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="150">
+      <c r="A43" s="127">
         <v>44603</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -23958,13 +24424,13 @@
         <v>56</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="151">
+      <c r="J43" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="150">
+      <c r="A44" s="127">
         <v>44603</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -23992,13 +24458,13 @@
       <c r="I44" s="5">
         <v>2</v>
       </c>
-      <c r="J44" s="151">
+      <c r="J44" s="128">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="150">
+      <c r="A45" s="127">
         <v>44603</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -24026,13 +24492,13 @@
       <c r="I45" s="5">
         <v>2</v>
       </c>
-      <c r="J45" s="151">
+      <c r="J45" s="128">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="150">
+      <c r="A46" s="127">
         <v>44603</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -24060,13 +24526,13 @@
       <c r="I46" s="5">
         <v>2</v>
       </c>
-      <c r="J46" s="151">
+      <c r="J46" s="128">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="150">
+      <c r="A47" s="127">
         <v>44603</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -24094,13 +24560,13 @@
       <c r="I47" s="5">
         <v>2</v>
       </c>
-      <c r="J47" s="151">
+      <c r="J47" s="128">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="150">
+      <c r="A48" s="127">
         <v>44603</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -24126,13 +24592,13 @@
         <v>11</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="151">
+      <c r="J48" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="150">
+      <c r="A49" s="127">
         <v>44603</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -24158,13 +24624,13 @@
         <v>11</v>
       </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="151">
+      <c r="J49" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="150">
+      <c r="A50" s="127">
         <v>44603</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -24190,13 +24656,13 @@
         <v>40</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="151">
+      <c r="J50" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="150">
+      <c r="A51" s="127">
         <v>44603</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -24222,13 +24688,13 @@
         <v>56</v>
       </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="151">
+      <c r="J51" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="150">
+      <c r="A52" s="127">
         <v>44603</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -24254,13 +24720,13 @@
         <v>11</v>
       </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="151">
+      <c r="J52" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="150">
+      <c r="A53" s="127">
         <v>44603</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -24286,13 +24752,13 @@
         <v>11</v>
       </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="151">
+      <c r="J53" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="150">
+      <c r="A54" s="127">
         <v>44603</v>
       </c>
       <c r="B54" s="108" t="s">
@@ -24318,13 +24784,13 @@
         <v>40</v>
       </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="151">
+      <c r="J54" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="150">
+      <c r="A55" s="127">
         <v>44603</v>
       </c>
       <c r="B55" s="108" t="s">
@@ -24352,13 +24818,13 @@
       <c r="I55" s="5">
         <v>1</v>
       </c>
-      <c r="J55" s="151">
+      <c r="J55" s="128">
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="150">
+      <c r="A56" s="127">
         <v>44603</v>
       </c>
       <c r="B56" s="108" t="s">
@@ -24386,13 +24852,13 @@
       <c r="I56" s="5">
         <v>1</v>
       </c>
-      <c r="J56" s="151">
+      <c r="J56" s="128">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="150">
+      <c r="A57" s="127">
         <v>44603</v>
       </c>
       <c r="B57" s="108" t="s">
@@ -24420,13 +24886,13 @@
       <c r="I57" s="5">
         <v>1</v>
       </c>
-      <c r="J57" s="151">
+      <c r="J57" s="128">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="150">
+      <c r="A58" s="127">
         <v>44603</v>
       </c>
       <c r="B58" s="108" t="s">
@@ -24452,13 +24918,13 @@
         <v>40</v>
       </c>
       <c r="I58" s="5"/>
-      <c r="J58" s="151">
+      <c r="J58" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="150">
+      <c r="A59" s="127">
         <v>44603</v>
       </c>
       <c r="B59" s="108" t="s">
@@ -24484,13 +24950,13 @@
         <v>56</v>
       </c>
       <c r="I59" s="5"/>
-      <c r="J59" s="151">
+      <c r="J59" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="150">
+      <c r="A60" s="127">
         <v>44603</v>
       </c>
       <c r="B60" s="108" t="s">
@@ -24516,13 +24982,13 @@
         <v>11</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="151">
+      <c r="J60" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="150">
+      <c r="A61" s="127">
         <v>44603</v>
       </c>
       <c r="B61" s="108" t="s">
@@ -24548,13 +25014,13 @@
         <v>11</v>
       </c>
       <c r="I61" s="5"/>
-      <c r="J61" s="151">
+      <c r="J61" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="150">
+      <c r="A62" s="127">
         <v>44603</v>
       </c>
       <c r="B62" s="108" t="s">
@@ -24580,13 +25046,13 @@
         <v>40</v>
       </c>
       <c r="I62" s="5"/>
-      <c r="J62" s="151">
+      <c r="J62" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="150">
+      <c r="A63" s="127">
         <v>44603</v>
       </c>
       <c r="B63" s="108" t="s">
@@ -24612,13 +25078,13 @@
         <v>56</v>
       </c>
       <c r="I63" s="5"/>
-      <c r="J63" s="151">
+      <c r="J63" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="150">
+      <c r="A64" s="127">
         <v>44603</v>
       </c>
       <c r="B64" s="108" t="s">
@@ -24644,13 +25110,13 @@
         <v>11</v>
       </c>
       <c r="I64" s="5"/>
-      <c r="J64" s="151">
+      <c r="J64" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="150">
+      <c r="A65" s="127">
         <v>44603</v>
       </c>
       <c r="B65" s="108" t="s">
@@ -24676,13 +25142,13 @@
         <v>11</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="151">
+      <c r="J65" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="150">
+      <c r="A66" s="127">
         <v>44603</v>
       </c>
       <c r="B66" s="108" t="s">
@@ -24708,13 +25174,13 @@
         <v>40</v>
       </c>
       <c r="I66" s="5"/>
-      <c r="J66" s="151">
+      <c r="J66" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="150">
+      <c r="A67" s="127">
         <v>44603</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -24740,13 +25206,13 @@
         <v>56</v>
       </c>
       <c r="I67" s="5"/>
-      <c r="J67" s="151">
+      <c r="J67" s="128">
         <f t="shared" ref="J67:J130" si="3">F67*I67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="150">
+      <c r="A68" s="127">
         <v>44603</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -24772,13 +25238,13 @@
         <v>11</v>
       </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="151">
+      <c r="J68" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="150">
+      <c r="A69" s="127">
         <v>44603</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -24804,13 +25270,13 @@
         <v>11</v>
       </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="151">
+      <c r="J69" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="150">
+      <c r="A70" s="127">
         <v>44603</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -24836,13 +25302,13 @@
         <v>40</v>
       </c>
       <c r="I70" s="5"/>
-      <c r="J70" s="151">
+      <c r="J70" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="150">
+      <c r="A71" s="127">
         <v>44603</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -24868,13 +25334,13 @@
         <v>56</v>
       </c>
       <c r="I71" s="5"/>
-      <c r="J71" s="151">
+      <c r="J71" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="150">
+      <c r="A72" s="127">
         <v>44603</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -24900,13 +25366,13 @@
         <v>11</v>
       </c>
       <c r="I72" s="5"/>
-      <c r="J72" s="151">
+      <c r="J72" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="150">
+      <c r="A73" s="127">
         <v>44603</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -24932,13 +25398,13 @@
         <v>11</v>
       </c>
       <c r="I73" s="5"/>
-      <c r="J73" s="151">
+      <c r="J73" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="150">
+      <c r="A74" s="127">
         <v>44603</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -24964,13 +25430,13 @@
         <v>40</v>
       </c>
       <c r="I74" s="5"/>
-      <c r="J74" s="151">
+      <c r="J74" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="150">
+      <c r="A75" s="127">
         <v>44603</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -24996,13 +25462,13 @@
         <v>56</v>
       </c>
       <c r="I75" s="5"/>
-      <c r="J75" s="151">
+      <c r="J75" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="150">
+      <c r="A76" s="127">
         <v>44603</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -25028,13 +25494,13 @@
         <v>11</v>
       </c>
       <c r="I76" s="5"/>
-      <c r="J76" s="151">
+      <c r="J76" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="150">
+      <c r="A77" s="127">
         <v>44603</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -25060,13 +25526,13 @@
         <v>11</v>
       </c>
       <c r="I77" s="5"/>
-      <c r="J77" s="151">
+      <c r="J77" s="128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="150">
+      <c r="A78" s="127">
         <v>44603</v>
       </c>
       <c r="B78" s="108" t="s">
@@ -25092,13 +25558,13 @@
         <v>40</v>
       </c>
       <c r="I78" s="108"/>
-      <c r="J78" s="152">
+      <c r="J78" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="150">
+      <c r="A79" s="127">
         <v>44603</v>
       </c>
       <c r="B79" s="108" t="s">
@@ -25126,13 +25592,13 @@
       <c r="I79" s="108">
         <v>3</v>
       </c>
-      <c r="J79" s="152">
+      <c r="J79" s="129">
         <f t="shared" si="3"/>
         <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="150">
+      <c r="A80" s="127">
         <v>44603</v>
       </c>
       <c r="B80" s="108" t="s">
@@ -25160,13 +25626,13 @@
       <c r="I80" s="108">
         <v>2</v>
       </c>
-      <c r="J80" s="152">
+      <c r="J80" s="129">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="150">
+      <c r="A81" s="127">
         <v>44603</v>
       </c>
       <c r="B81" s="108" t="s">
@@ -25194,13 +25660,13 @@
       <c r="I81" s="108">
         <v>3</v>
       </c>
-      <c r="J81" s="152">
+      <c r="J81" s="129">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="150">
+      <c r="A82" s="127">
         <v>44603</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -25228,13 +25694,13 @@
       <c r="I82" s="5">
         <v>1</v>
       </c>
-      <c r="J82" s="152">
+      <c r="J82" s="129">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="150">
+      <c r="A83" s="127">
         <v>44603</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -25262,13 +25728,13 @@
       <c r="I83" s="5">
         <v>1</v>
       </c>
-      <c r="J83" s="152">
+      <c r="J83" s="129">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="150">
+      <c r="A84" s="127">
         <v>44603</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -25296,13 +25762,13 @@
       <c r="I84" s="5">
         <v>1</v>
       </c>
-      <c r="J84" s="152">
+      <c r="J84" s="129">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="150">
+      <c r="A85" s="127">
         <v>44603</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -25330,13 +25796,13 @@
       <c r="I85" s="5">
         <v>1</v>
       </c>
-      <c r="J85" s="152">
+      <c r="J85" s="129">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="150">
+      <c r="A86" s="127">
         <v>44603</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -25364,13 +25830,13 @@
       <c r="I86" s="5">
         <v>1</v>
       </c>
-      <c r="J86" s="152">
+      <c r="J86" s="129">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="150">
+      <c r="A87" s="127">
         <v>44603</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -25398,13 +25864,13 @@
       <c r="I87" s="5">
         <v>1</v>
       </c>
-      <c r="J87" s="152">
+      <c r="J87" s="129">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="150">
+      <c r="A88" s="127">
         <v>44603</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -25430,13 +25896,13 @@
         <v>21</v>
       </c>
       <c r="I88" s="5"/>
-      <c r="J88" s="152">
+      <c r="J88" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="150">
+      <c r="A89" s="127">
         <v>44603</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -25464,13 +25930,13 @@
       <c r="I89" s="5">
         <v>4</v>
       </c>
-      <c r="J89" s="152">
+      <c r="J89" s="129">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="150">
+      <c r="A90" s="127">
         <v>44603</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -25498,13 +25964,13 @@
       <c r="I90" s="5">
         <v>5</v>
       </c>
-      <c r="J90" s="152">
+      <c r="J90" s="129">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="150">
+      <c r="A91" s="127">
         <v>44603</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -25532,13 +25998,13 @@
       <c r="I91" s="5">
         <v>8</v>
       </c>
-      <c r="J91" s="152">
+      <c r="J91" s="129">
         <f t="shared" si="3"/>
         <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="150">
+      <c r="A92" s="127">
         <v>44603</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -25566,13 +26032,13 @@
       <c r="I92" s="5">
         <v>1</v>
       </c>
-      <c r="J92" s="152">
+      <c r="J92" s="129">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="150">
+      <c r="A93" s="127">
         <v>44603</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -25600,13 +26066,13 @@
       <c r="I93" s="5">
         <v>2</v>
       </c>
-      <c r="J93" s="152">
+      <c r="J93" s="129">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="150">
+      <c r="A94" s="127">
         <v>44603</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -25632,13 +26098,13 @@
         <v>8</v>
       </c>
       <c r="I94" s="5"/>
-      <c r="J94" s="152">
+      <c r="J94" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="150">
+      <c r="A95" s="127">
         <v>44603</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -25664,13 +26130,13 @@
         <v>8</v>
       </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="152">
+      <c r="J95" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="150">
+      <c r="A96" s="127">
         <v>44603</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -25696,13 +26162,13 @@
         <v>8</v>
       </c>
       <c r="I96" s="5"/>
-      <c r="J96" s="152">
+      <c r="J96" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="150">
+      <c r="A97" s="127">
         <v>44603</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -25728,13 +26194,13 @@
         <v>21</v>
       </c>
       <c r="I97" s="5"/>
-      <c r="J97" s="152">
+      <c r="J97" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="150">
+      <c r="A98" s="127">
         <v>44603</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -25760,13 +26226,13 @@
         <v>21</v>
       </c>
       <c r="I98" s="5"/>
-      <c r="J98" s="152">
+      <c r="J98" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="150">
+      <c r="A99" s="127">
         <v>44603</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -25792,13 +26258,13 @@
         <v>8</v>
       </c>
       <c r="I99" s="5"/>
-      <c r="J99" s="152">
+      <c r="J99" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="150">
+      <c r="A100" s="127">
         <v>44603</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -25824,13 +26290,13 @@
         <v>8</v>
       </c>
       <c r="I100" s="5"/>
-      <c r="J100" s="152">
+      <c r="J100" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="150">
+      <c r="A101" s="127">
         <v>44603</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -25858,13 +26324,13 @@
       <c r="I101" s="5">
         <v>2</v>
       </c>
-      <c r="J101" s="152">
+      <c r="J101" s="129">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="150">
+      <c r="A102" s="127">
         <v>44603</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -25890,13 +26356,13 @@
         <v>21</v>
       </c>
       <c r="I102" s="5"/>
-      <c r="J102" s="152">
+      <c r="J102" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="150">
+      <c r="A103" s="127">
         <v>44603</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -25922,13 +26388,13 @@
         <v>21</v>
       </c>
       <c r="I103" s="5"/>
-      <c r="J103" s="152">
+      <c r="J103" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="150">
+      <c r="A104" s="127">
         <v>44603</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -25954,13 +26420,13 @@
         <v>8</v>
       </c>
       <c r="I104" s="5"/>
-      <c r="J104" s="152">
+      <c r="J104" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="150">
+      <c r="A105" s="127">
         <v>44603</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -25986,13 +26452,13 @@
         <v>8</v>
       </c>
       <c r="I105" s="5"/>
-      <c r="J105" s="152">
+      <c r="J105" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="150">
+      <c r="A106" s="127">
         <v>44603</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -26018,13 +26484,13 @@
         <v>8</v>
       </c>
       <c r="I106" s="5"/>
-      <c r="J106" s="152">
+      <c r="J106" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="150">
+      <c r="A107" s="127">
         <v>44603</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -26050,13 +26516,13 @@
         <v>21</v>
       </c>
       <c r="I107" s="5"/>
-      <c r="J107" s="152">
+      <c r="J107" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="150">
+      <c r="A108" s="127">
         <v>44603</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -26082,13 +26548,13 @@
         <v>21</v>
       </c>
       <c r="I108" s="5"/>
-      <c r="J108" s="152">
+      <c r="J108" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="150">
+      <c r="A109" s="127">
         <v>44603</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -26114,13 +26580,13 @@
         <v>8</v>
       </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="152">
+      <c r="J109" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="150">
+      <c r="A110" s="127">
         <v>44603</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -26146,13 +26612,13 @@
         <v>8</v>
       </c>
       <c r="I110" s="5"/>
-      <c r="J110" s="152">
+      <c r="J110" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="150">
+      <c r="A111" s="127">
         <v>44603</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -26178,13 +26644,13 @@
         <v>8</v>
       </c>
       <c r="I111" s="5"/>
-      <c r="J111" s="152">
+      <c r="J111" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="150">
+      <c r="A112" s="127">
         <v>44603</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -26210,13 +26676,13 @@
         <v>21</v>
       </c>
       <c r="I112" s="5"/>
-      <c r="J112" s="152">
+      <c r="J112" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="150">
+      <c r="A113" s="127">
         <v>44603</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -26244,13 +26710,13 @@
       <c r="I113" s="5">
         <v>1</v>
       </c>
-      <c r="J113" s="152">
+      <c r="J113" s="129">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="150">
+      <c r="A114" s="127">
         <v>44603</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -26278,13 +26744,13 @@
       <c r="I114" s="5">
         <v>1</v>
       </c>
-      <c r="J114" s="152">
+      <c r="J114" s="129">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="150">
+      <c r="A115" s="127">
         <v>44603</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -26312,13 +26778,13 @@
       <c r="I115" s="5">
         <v>1</v>
       </c>
-      <c r="J115" s="152">
+      <c r="J115" s="129">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="150">
+      <c r="A116" s="127">
         <v>44603</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -26346,13 +26812,13 @@
       <c r="I116" s="5">
         <v>1</v>
       </c>
-      <c r="J116" s="152">
+      <c r="J116" s="129">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="150">
+      <c r="A117" s="127">
         <v>44603</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -26378,13 +26844,13 @@
         <v>21</v>
       </c>
       <c r="I117" s="5"/>
-      <c r="J117" s="152">
+      <c r="J117" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="150">
+      <c r="A118" s="127">
         <v>44603</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -26410,13 +26876,13 @@
         <v>21</v>
       </c>
       <c r="I118" s="5"/>
-      <c r="J118" s="152">
+      <c r="J118" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="150">
+      <c r="A119" s="127">
         <v>44603</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -26442,13 +26908,13 @@
         <v>8</v>
       </c>
       <c r="I119" s="5"/>
-      <c r="J119" s="152">
+      <c r="J119" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="150">
+      <c r="A120" s="127">
         <v>44603</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -26474,13 +26940,13 @@
         <v>8</v>
       </c>
       <c r="I120" s="5"/>
-      <c r="J120" s="152">
+      <c r="J120" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="150">
+      <c r="A121" s="127">
         <v>44603</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -26506,13 +26972,13 @@
         <v>8</v>
       </c>
       <c r="I121" s="5"/>
-      <c r="J121" s="152">
+      <c r="J121" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="150">
+      <c r="A122" s="127">
         <v>44603</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -26538,13 +27004,13 @@
         <v>21</v>
       </c>
       <c r="I122" s="5"/>
-      <c r="J122" s="152">
+      <c r="J122" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="150">
+      <c r="A123" s="127">
         <v>44603</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -26570,13 +27036,13 @@
         <v>21</v>
       </c>
       <c r="I123" s="5"/>
-      <c r="J123" s="152">
+      <c r="J123" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="150">
+      <c r="A124" s="127">
         <v>44603</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -26602,13 +27068,13 @@
         <v>8</v>
       </c>
       <c r="I124" s="5"/>
-      <c r="J124" s="152">
+      <c r="J124" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="150">
+      <c r="A125" s="127">
         <v>44603</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -26634,13 +27100,13 @@
         <v>8</v>
       </c>
       <c r="I125" s="5"/>
-      <c r="J125" s="152">
+      <c r="J125" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="150">
+      <c r="A126" s="127">
         <v>44603</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -26666,13 +27132,13 @@
         <v>8</v>
       </c>
       <c r="I126" s="5"/>
-      <c r="J126" s="152">
+      <c r="J126" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="150">
+      <c r="A127" s="127">
         <v>44603</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -26698,13 +27164,13 @@
         <v>21</v>
       </c>
       <c r="I127" s="5"/>
-      <c r="J127" s="152">
+      <c r="J127" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="150">
+      <c r="A128" s="127">
         <v>44603</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -26730,13 +27196,13 @@
         <v>21</v>
       </c>
       <c r="I128" s="5"/>
-      <c r="J128" s="152">
+      <c r="J128" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="150">
+      <c r="A129" s="127">
         <v>44603</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -26762,13 +27228,13 @@
         <v>8</v>
       </c>
       <c r="I129" s="5"/>
-      <c r="J129" s="152">
+      <c r="J129" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="150">
+      <c r="A130" s="127">
         <v>44603</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -26794,13 +27260,13 @@
         <v>8</v>
       </c>
       <c r="I130" s="5"/>
-      <c r="J130" s="152">
+      <c r="J130" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="150">
+      <c r="A131" s="127">
         <v>44603</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -26826,13 +27292,13 @@
         <v>8</v>
       </c>
       <c r="I131" s="5"/>
-      <c r="J131" s="152">
+      <c r="J131" s="129">
         <f t="shared" ref="J131:J194" si="5">F131*I131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="150">
+      <c r="A132" s="127">
         <v>44610</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -26858,13 +27324,13 @@
         <v>5</v>
       </c>
       <c r="I132" s="5"/>
-      <c r="J132" s="152">
+      <c r="J132" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="150">
+      <c r="A133" s="127">
         <v>44610</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -26890,13 +27356,13 @@
         <v>15</v>
       </c>
       <c r="I133" s="5"/>
-      <c r="J133" s="152">
+      <c r="J133" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="150">
+      <c r="A134" s="127">
         <v>44610</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -26922,13 +27388,13 @@
         <v>15</v>
       </c>
       <c r="I134" s="5"/>
-      <c r="J134" s="152">
+      <c r="J134" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="150">
+      <c r="A135" s="127">
         <v>44610</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -26956,13 +27422,13 @@
       <c r="I135" s="5">
         <v>3</v>
       </c>
-      <c r="J135" s="152">
+      <c r="J135" s="129">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="150">
+      <c r="A136" s="127">
         <v>44610</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -26990,13 +27456,13 @@
       <c r="I136" s="5">
         <v>1</v>
       </c>
-      <c r="J136" s="152">
+      <c r="J136" s="129">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="150">
+      <c r="A137" s="127">
         <v>44610</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -27024,13 +27490,13 @@
       <c r="I137" s="5">
         <v>9</v>
       </c>
-      <c r="J137" s="152">
+      <c r="J137" s="129">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="150">
+      <c r="A138" s="127">
         <v>44610</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -27058,13 +27524,13 @@
       <c r="I138" s="5">
         <v>2</v>
       </c>
-      <c r="J138" s="152">
+      <c r="J138" s="129">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="150">
+      <c r="A139" s="127">
         <v>44610</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -27092,13 +27558,13 @@
       <c r="I139" s="5">
         <v>1</v>
       </c>
-      <c r="J139" s="152">
+      <c r="J139" s="129">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="150">
+      <c r="A140" s="127">
         <v>44610</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -27126,13 +27592,13 @@
       <c r="I140" s="5">
         <v>1</v>
       </c>
-      <c r="J140" s="152">
+      <c r="J140" s="129">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="150">
+      <c r="A141" s="127">
         <v>44610</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -27160,13 +27626,13 @@
       <c r="I141" s="5">
         <v>1</v>
       </c>
-      <c r="J141" s="152">
+      <c r="J141" s="129">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="150">
+      <c r="A142" s="127">
         <v>44610</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -27192,13 +27658,13 @@
         <v>5</v>
       </c>
       <c r="I142" s="5"/>
-      <c r="J142" s="152">
+      <c r="J142" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="150">
+      <c r="A143" s="127">
         <v>44610</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -27226,13 +27692,13 @@
       <c r="I143" s="5">
         <v>3</v>
       </c>
-      <c r="J143" s="152">
+      <c r="J143" s="129">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="150">
+      <c r="A144" s="127">
         <v>44610</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -27258,13 +27724,13 @@
         <v>15</v>
       </c>
       <c r="I144" s="5"/>
-      <c r="J144" s="152">
+      <c r="J144" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="150">
+      <c r="A145" s="127">
         <v>44610</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -27290,13 +27756,13 @@
         <v>10</v>
       </c>
       <c r="I145" s="5"/>
-      <c r="J145" s="152">
+      <c r="J145" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="150">
+      <c r="A146" s="127">
         <v>44610</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -27322,13 +27788,13 @@
         <v>11</v>
       </c>
       <c r="I146" s="5"/>
-      <c r="J146" s="152">
+      <c r="J146" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="150">
+      <c r="A147" s="127">
         <v>44610</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -27354,13 +27820,13 @@
         <v>5</v>
       </c>
       <c r="I147" s="5"/>
-      <c r="J147" s="152">
+      <c r="J147" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="150">
+      <c r="A148" s="127">
         <v>44610</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -27386,13 +27852,13 @@
         <v>15</v>
       </c>
       <c r="I148" s="5"/>
-      <c r="J148" s="152">
+      <c r="J148" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="150">
+      <c r="A149" s="127">
         <v>44610</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -27418,13 +27884,13 @@
         <v>15</v>
       </c>
       <c r="I149" s="5"/>
-      <c r="J149" s="152">
+      <c r="J149" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="150">
+      <c r="A150" s="127">
         <v>44610</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -27450,13 +27916,13 @@
         <v>10</v>
       </c>
       <c r="I150" s="5"/>
-      <c r="J150" s="152">
+      <c r="J150" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="150">
+      <c r="A151" s="127">
         <v>44610</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -27482,13 +27948,13 @@
         <v>11</v>
       </c>
       <c r="I151" s="5"/>
-      <c r="J151" s="152">
+      <c r="J151" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="150">
+      <c r="A152" s="127">
         <v>44610</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -27514,13 +27980,13 @@
         <v>5</v>
       </c>
       <c r="I152" s="5"/>
-      <c r="J152" s="152">
+      <c r="J152" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="150">
+      <c r="A153" s="127">
         <v>44610</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -27546,13 +28012,13 @@
         <v>15</v>
       </c>
       <c r="I153" s="5"/>
-      <c r="J153" s="152">
+      <c r="J153" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="150">
+      <c r="A154" s="127">
         <v>44610</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -27580,13 +28046,13 @@
       <c r="I154" s="5">
         <v>2</v>
       </c>
-      <c r="J154" s="152">
+      <c r="J154" s="129">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="150">
+      <c r="A155" s="127">
         <v>44610</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -27612,13 +28078,13 @@
         <v>10</v>
       </c>
       <c r="I155" s="5"/>
-      <c r="J155" s="152">
+      <c r="J155" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="150">
+      <c r="A156" s="127">
         <v>44610</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -27644,13 +28110,13 @@
         <v>11</v>
       </c>
       <c r="I156" s="5"/>
-      <c r="J156" s="152">
+      <c r="J156" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="150">
+      <c r="A157" s="127">
         <v>44610</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -27676,13 +28142,13 @@
         <v>5</v>
       </c>
       <c r="I157" s="5"/>
-      <c r="J157" s="152">
+      <c r="J157" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="150">
+      <c r="A158" s="127">
         <v>44610</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -27708,13 +28174,13 @@
         <v>15</v>
       </c>
       <c r="I158" s="5"/>
-      <c r="J158" s="152">
+      <c r="J158" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="150">
+      <c r="A159" s="127">
         <v>44610</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -27740,13 +28206,13 @@
         <v>15</v>
       </c>
       <c r="I159" s="5"/>
-      <c r="J159" s="152">
+      <c r="J159" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="150">
+      <c r="A160" s="127">
         <v>44610</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -27772,13 +28238,13 @@
         <v>10</v>
       </c>
       <c r="I160" s="5"/>
-      <c r="J160" s="152">
+      <c r="J160" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="150">
+      <c r="A161" s="127">
         <v>44610</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -27804,13 +28270,13 @@
         <v>11</v>
       </c>
       <c r="I161" s="5"/>
-      <c r="J161" s="152">
+      <c r="J161" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="150">
+      <c r="A162" s="127">
         <v>44610</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -27838,13 +28304,13 @@
       <c r="I162" s="5">
         <v>10</v>
       </c>
-      <c r="J162" s="152">
+      <c r="J162" s="129">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="150">
+      <c r="A163" s="127">
         <v>44610</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -27870,13 +28336,13 @@
         <v>15</v>
       </c>
       <c r="I163" s="5"/>
-      <c r="J163" s="152">
+      <c r="J163" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="150">
+      <c r="A164" s="127">
         <v>44610</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -27902,13 +28368,13 @@
         <v>15</v>
       </c>
       <c r="I164" s="5"/>
-      <c r="J164" s="152">
+      <c r="J164" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="150">
+      <c r="A165" s="127">
         <v>44610</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -27934,13 +28400,13 @@
         <v>10</v>
       </c>
       <c r="I165" s="5"/>
-      <c r="J165" s="152">
+      <c r="J165" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="150">
+      <c r="A166" s="127">
         <v>44610</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -27966,13 +28432,13 @@
         <v>11</v>
       </c>
       <c r="I166" s="5"/>
-      <c r="J166" s="152">
+      <c r="J166" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="150">
+      <c r="A167" s="127">
         <v>44610</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -27998,13 +28464,13 @@
         <v>5</v>
       </c>
       <c r="I167" s="5"/>
-      <c r="J167" s="152">
+      <c r="J167" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="150">
+      <c r="A168" s="127">
         <v>44610</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -28030,13 +28496,13 @@
         <v>15</v>
       </c>
       <c r="I168" s="5"/>
-      <c r="J168" s="152">
+      <c r="J168" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="150">
+      <c r="A169" s="127">
         <v>44610</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -28062,13 +28528,13 @@
         <v>15</v>
       </c>
       <c r="I169" s="5"/>
-      <c r="J169" s="152">
+      <c r="J169" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="150">
+      <c r="A170" s="127">
         <v>44610</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -28094,13 +28560,13 @@
         <v>10</v>
       </c>
       <c r="I170" s="5"/>
-      <c r="J170" s="152">
+      <c r="J170" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="150">
+      <c r="A171" s="127">
         <v>44610</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -28126,13 +28592,13 @@
         <v>11</v>
       </c>
       <c r="I171" s="5"/>
-      <c r="J171" s="152">
+      <c r="J171" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="150">
+      <c r="A172" s="127">
         <v>44610</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -28158,13 +28624,13 @@
         <v>5</v>
       </c>
       <c r="I172" s="5"/>
-      <c r="J172" s="152">
+      <c r="J172" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="150">
+      <c r="A173" s="127">
         <v>44610</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -28190,13 +28656,13 @@
         <v>15</v>
       </c>
       <c r="I173" s="5"/>
-      <c r="J173" s="152">
+      <c r="J173" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="150">
+      <c r="A174" s="127">
         <v>44610</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -28222,13 +28688,13 @@
         <v>15</v>
       </c>
       <c r="I174" s="5"/>
-      <c r="J174" s="152">
+      <c r="J174" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="150">
+      <c r="A175" s="127">
         <v>44610</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -28254,13 +28720,13 @@
         <v>10</v>
       </c>
       <c r="I175" s="5"/>
-      <c r="J175" s="152">
+      <c r="J175" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="150">
+      <c r="A176" s="127">
         <v>44610</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -28286,13 +28752,13 @@
         <v>11</v>
       </c>
       <c r="I176" s="5"/>
-      <c r="J176" s="152">
+      <c r="J176" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="150">
+      <c r="A177" s="127">
         <v>44610</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -28320,13 +28786,13 @@
       <c r="I177" s="5">
         <v>10</v>
       </c>
-      <c r="J177" s="152">
+      <c r="J177" s="129">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="150">
+      <c r="A178" s="127">
         <v>44610</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -28354,13 +28820,13 @@
       <c r="I178" s="5">
         <v>5</v>
       </c>
-      <c r="J178" s="152">
+      <c r="J178" s="129">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="150">
+      <c r="A179" s="127">
         <v>44610</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -28388,13 +28854,13 @@
       <c r="I179" s="5">
         <v>4</v>
       </c>
-      <c r="J179" s="152">
+      <c r="J179" s="129">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="150">
+      <c r="A180" s="127">
         <v>44610</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -28422,13 +28888,13 @@
       <c r="I180" s="5">
         <v>5</v>
       </c>
-      <c r="J180" s="152">
+      <c r="J180" s="129">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="150">
+      <c r="A181" s="127">
         <v>44610</v>
       </c>
       <c r="B181" s="5" t="s">
@@ -28456,13 +28922,13 @@
       <c r="I181" s="5">
         <v>6</v>
       </c>
-      <c r="J181" s="152">
+      <c r="J181" s="129">
         <f t="shared" si="5"/>
         <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="150">
+      <c r="A182" s="127">
         <v>44610</v>
       </c>
       <c r="B182" s="5" t="s">
@@ -28490,13 +28956,13 @@
       <c r="I182" s="5">
         <v>2</v>
       </c>
-      <c r="J182" s="152">
+      <c r="J182" s="129">
         <f t="shared" si="5"/>
         <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="150">
+      <c r="A183" s="127">
         <v>44610</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -28522,13 +28988,13 @@
         <v>18</v>
       </c>
       <c r="I183" s="5"/>
-      <c r="J183" s="152">
+      <c r="J183" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="150">
+      <c r="A184" s="127">
         <v>44610</v>
       </c>
       <c r="B184" s="5" t="s">
@@ -28554,13 +29020,13 @@
         <v>18</v>
       </c>
       <c r="I184" s="5"/>
-      <c r="J184" s="152">
+      <c r="J184" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="150">
+      <c r="A185" s="127">
         <v>44610</v>
       </c>
       <c r="B185" s="5" t="s">
@@ -28588,13 +29054,13 @@
       <c r="I185" s="5">
         <v>1</v>
       </c>
-      <c r="J185" s="152">
+      <c r="J185" s="129">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="150">
+      <c r="A186" s="127">
         <v>44610</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -28622,13 +29088,13 @@
       <c r="I186" s="5">
         <v>1</v>
       </c>
-      <c r="J186" s="152">
+      <c r="J186" s="129">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="150">
+      <c r="A187" s="127">
         <v>44610</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -28654,13 +29120,13 @@
         <v>17</v>
       </c>
       <c r="I187" s="5"/>
-      <c r="J187" s="152">
+      <c r="J187" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="150">
+      <c r="A188" s="127">
         <v>44610</v>
       </c>
       <c r="B188" s="5" t="s">
@@ -28688,13 +29154,13 @@
       <c r="I188" s="5">
         <v>1</v>
       </c>
-      <c r="J188" s="152">
+      <c r="J188" s="129">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="150">
+      <c r="A189" s="127">
         <v>44610</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -28722,13 +29188,13 @@
       <c r="I189" s="5">
         <v>1</v>
       </c>
-      <c r="J189" s="152">
+      <c r="J189" s="129">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="150">
+      <c r="A190" s="127">
         <v>44610</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -28756,13 +29222,13 @@
       <c r="I190" s="5">
         <v>2</v>
       </c>
-      <c r="J190" s="152">
+      <c r="J190" s="129">
         <f t="shared" si="5"/>
         <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="150">
+      <c r="A191" s="127">
         <v>44610</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -28788,13 +29254,13 @@
         <v>18</v>
       </c>
       <c r="I191" s="5"/>
-      <c r="J191" s="152">
+      <c r="J191" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="150">
+      <c r="A192" s="127">
         <v>44610</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -28820,13 +29286,13 @@
         <v>17</v>
       </c>
       <c r="I192" s="5"/>
-      <c r="J192" s="152">
+      <c r="J192" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="150">
+      <c r="A193" s="127">
         <v>44610</v>
       </c>
       <c r="B193" s="5" t="s">
@@ -28852,13 +29318,13 @@
         <v>18</v>
       </c>
       <c r="I193" s="5"/>
-      <c r="J193" s="152">
+      <c r="J193" s="129">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="150">
+      <c r="A194" s="127">
         <v>44610</v>
       </c>
       <c r="B194" s="5" t="s">
@@ -28886,13 +29352,13 @@
       <c r="I194" s="5">
         <v>1</v>
       </c>
-      <c r="J194" s="152">
+      <c r="J194" s="129">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="150">
+      <c r="A195" s="127">
         <v>44610</v>
       </c>
       <c r="B195" s="5" t="s">
@@ -28914,17 +29380,17 @@
         <v>105</v>
       </c>
       <c r="H195" s="108">
-        <f t="shared" ref="H195:H226" si="6">F195-E195</f>
+        <f t="shared" ref="H195:H258" si="6">F195-E195</f>
         <v>18</v>
       </c>
       <c r="I195" s="5"/>
-      <c r="J195" s="152">
+      <c r="J195" s="129">
         <f t="shared" ref="J195:J226" si="7">F195*I195</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="150">
+      <c r="A196" s="127">
         <v>44610</v>
       </c>
       <c r="B196" s="5" t="s">
@@ -28950,13 +29416,13 @@
         <v>18</v>
       </c>
       <c r="I196" s="5"/>
-      <c r="J196" s="152">
+      <c r="J196" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="150">
+      <c r="A197" s="127">
         <v>44610</v>
       </c>
       <c r="B197" s="5" t="s">
@@ -28982,13 +29448,13 @@
         <v>17</v>
       </c>
       <c r="I197" s="5"/>
-      <c r="J197" s="152">
+      <c r="J197" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="150">
+      <c r="A198" s="127">
         <v>44610</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -29014,13 +29480,13 @@
         <v>18</v>
       </c>
       <c r="I198" s="5"/>
-      <c r="J198" s="152">
+      <c r="J198" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="150">
+      <c r="A199" s="127">
         <v>44610</v>
       </c>
       <c r="B199" s="5" t="s">
@@ -29048,13 +29514,13 @@
       <c r="I199" s="5">
         <v>2</v>
       </c>
-      <c r="J199" s="152">
+      <c r="J199" s="129">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="150">
+      <c r="A200" s="127">
         <v>44610</v>
       </c>
       <c r="B200" s="5" t="s">
@@ -29082,13 +29548,13 @@
       <c r="I200" s="5">
         <v>2</v>
       </c>
-      <c r="J200" s="152">
+      <c r="J200" s="129">
         <f t="shared" si="7"/>
         <v>176</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="150">
+      <c r="A201" s="127">
         <v>44610</v>
       </c>
       <c r="B201" s="5" t="s">
@@ -29116,13 +29582,13 @@
       <c r="I201" s="5">
         <v>1</v>
       </c>
-      <c r="J201" s="152">
+      <c r="J201" s="129">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="150">
+      <c r="A202" s="127">
         <v>44610</v>
       </c>
       <c r="B202" s="5" t="s">
@@ -29148,13 +29614,13 @@
         <v>17</v>
       </c>
       <c r="I202" s="5"/>
-      <c r="J202" s="152">
+      <c r="J202" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="150">
+      <c r="A203" s="127">
         <v>44610</v>
       </c>
       <c r="B203" s="5" t="s">
@@ -29180,13 +29646,13 @@
         <v>18</v>
       </c>
       <c r="I203" s="5"/>
-      <c r="J203" s="152">
+      <c r="J203" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="150">
+      <c r="A204" s="127">
         <v>44610</v>
       </c>
       <c r="B204" s="5" t="s">
@@ -29212,13 +29678,13 @@
         <v>18</v>
       </c>
       <c r="I204" s="5"/>
-      <c r="J204" s="152">
+      <c r="J204" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="150">
+      <c r="A205" s="127">
         <v>44610</v>
       </c>
       <c r="B205" s="5" t="s">
@@ -29244,13 +29710,13 @@
         <v>18</v>
       </c>
       <c r="I205" s="5"/>
-      <c r="J205" s="152">
+      <c r="J205" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="150">
+      <c r="A206" s="127">
         <v>44610</v>
       </c>
       <c r="B206" s="5" t="s">
@@ -29276,13 +29742,13 @@
         <v>18</v>
       </c>
       <c r="I206" s="5"/>
-      <c r="J206" s="152">
+      <c r="J206" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="150">
+      <c r="A207" s="127">
         <v>44610</v>
       </c>
       <c r="B207" s="5" t="s">
@@ -29308,13 +29774,13 @@
         <v>17</v>
       </c>
       <c r="I207" s="5"/>
-      <c r="J207" s="152">
+      <c r="J207" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="150">
+      <c r="A208" s="127">
         <v>44610</v>
       </c>
       <c r="B208" s="5" t="s">
@@ -29340,13 +29806,13 @@
         <v>18</v>
       </c>
       <c r="I208" s="5"/>
-      <c r="J208" s="152">
+      <c r="J208" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="150">
+      <c r="A209" s="127">
         <v>44610</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -29372,13 +29838,13 @@
         <v>18</v>
       </c>
       <c r="I209" s="5"/>
-      <c r="J209" s="152">
+      <c r="J209" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="150">
+      <c r="A210" s="127">
         <v>44610</v>
       </c>
       <c r="B210" s="5" t="s">
@@ -29404,13 +29870,13 @@
         <v>18</v>
       </c>
       <c r="I210" s="5"/>
-      <c r="J210" s="152">
+      <c r="J210" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="150">
+      <c r="A211" s="127">
         <v>44610</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -29436,13 +29902,13 @@
         <v>18</v>
       </c>
       <c r="I211" s="5"/>
-      <c r="J211" s="152">
+      <c r="J211" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="150">
+      <c r="A212" s="127">
         <v>44610</v>
       </c>
       <c r="B212" s="5" t="s">
@@ -29468,13 +29934,13 @@
         <v>17</v>
       </c>
       <c r="I212" s="5"/>
-      <c r="J212" s="152">
+      <c r="J212" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="150">
+      <c r="A213" s="127">
         <v>44610</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -29500,13 +29966,13 @@
         <v>18</v>
       </c>
       <c r="I213" s="5"/>
-      <c r="J213" s="152">
+      <c r="J213" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="150">
+      <c r="A214" s="127">
         <v>44610</v>
       </c>
       <c r="B214" s="5" t="s">
@@ -29532,13 +29998,13 @@
         <v>18</v>
       </c>
       <c r="I214" s="5"/>
-      <c r="J214" s="152">
+      <c r="J214" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="150">
+      <c r="A215" s="127">
         <v>44610</v>
       </c>
       <c r="B215" s="5" t="s">
@@ -29564,13 +30030,13 @@
         <v>18</v>
       </c>
       <c r="I215" s="5"/>
-      <c r="J215" s="152">
+      <c r="J215" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="150">
+      <c r="A216" s="127">
         <v>44610</v>
       </c>
       <c r="B216" s="5" t="s">
@@ -29596,13 +30062,13 @@
         <v>18</v>
       </c>
       <c r="I216" s="5"/>
-      <c r="J216" s="152">
+      <c r="J216" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="150">
+      <c r="A217" s="127">
         <v>44610</v>
       </c>
       <c r="B217" s="5" t="s">
@@ -29628,13 +30094,13 @@
         <v>17</v>
       </c>
       <c r="I217" s="5"/>
-      <c r="J217" s="152">
+      <c r="J217" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="150">
+      <c r="A218" s="127">
         <v>44610</v>
       </c>
       <c r="B218" s="5" t="s">
@@ -29660,13 +30126,13 @@
         <v>18</v>
       </c>
       <c r="I218" s="5"/>
-      <c r="J218" s="152">
+      <c r="J218" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="150">
+      <c r="A219" s="127">
         <v>44610</v>
       </c>
       <c r="B219" s="5" t="s">
@@ -29692,13 +30158,13 @@
         <v>18</v>
       </c>
       <c r="I219" s="5"/>
-      <c r="J219" s="152">
+      <c r="J219" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="150">
+      <c r="A220" s="127">
         <v>44610</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -29724,13 +30190,13 @@
         <v>18</v>
       </c>
       <c r="I220" s="5"/>
-      <c r="J220" s="152">
+      <c r="J220" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="150">
+      <c r="A221" s="127">
         <v>44610</v>
       </c>
       <c r="B221" s="5" t="s">
@@ -29756,13 +30222,13 @@
         <v>18</v>
       </c>
       <c r="I221" s="5"/>
-      <c r="J221" s="152">
+      <c r="J221" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="150">
+      <c r="A222" s="127">
         <v>44610</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -29788,13 +30254,13 @@
         <v>17</v>
       </c>
       <c r="I222" s="5"/>
-      <c r="J222" s="152">
+      <c r="J222" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="150">
+      <c r="A223" s="127">
         <v>44610</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -29820,13 +30286,13 @@
         <v>18</v>
       </c>
       <c r="I223" s="5"/>
-      <c r="J223" s="152">
+      <c r="J223" s="129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="150">
+      <c r="A224" s="127">
         <v>44610</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -29852,15 +30318,15 @@
         <v>18</v>
       </c>
       <c r="I224" s="5">
-        <v>1</v>
-      </c>
-      <c r="J224" s="152">
+        <v>2</v>
+      </c>
+      <c r="J224" s="129">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>176</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="150">
+      <c r="A225" s="127">
         <v>44610</v>
       </c>
       <c r="B225" s="5" t="s">
@@ -29886,52 +30352,1219 @@
         <v>18</v>
       </c>
       <c r="I225" s="5">
+        <v>2</v>
+      </c>
+      <c r="J225" s="129">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B226" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226" s="131">
+        <v>53</v>
+      </c>
+      <c r="D226" s="131" t="s">
+        <v>243</v>
+      </c>
+      <c r="E226" s="131">
+        <v>70</v>
+      </c>
+      <c r="F226" s="131">
+        <v>88</v>
+      </c>
+      <c r="G226" s="131">
+        <v>105</v>
+      </c>
+      <c r="H226" s="108">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I226" s="131">
         <v>1</v>
       </c>
-      <c r="J225" s="152">
+      <c r="J226" s="132">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="153">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="127">
         <v>44610</v>
       </c>
-      <c r="B226" s="154" t="s">
+      <c r="B227" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" s="131">
+        <v>39</v>
+      </c>
+      <c r="D227" s="131" t="s">
+        <v>246</v>
+      </c>
+      <c r="E227" s="131">
+        <v>13</v>
+      </c>
+      <c r="F227" s="131">
+        <v>20</v>
+      </c>
+      <c r="G227" s="131">
+        <v>25</v>
+      </c>
+      <c r="H227" s="108">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I227" s="131"/>
+      <c r="J227" s="132">
+        <f>F227*I227</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B228" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" s="131">
+        <v>39</v>
+      </c>
+      <c r="D228" s="131" t="s">
+        <v>248</v>
+      </c>
+      <c r="E228" s="131">
+        <v>336</v>
+      </c>
+      <c r="F228" s="131">
+        <v>611</v>
+      </c>
+      <c r="G228" s="131">
+        <v>765</v>
+      </c>
+      <c r="H228" s="108">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="I228" s="131"/>
+      <c r="J228" s="132">
+        <f>F228*I228</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" s="131">
+        <v>39</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E229" s="5">
+        <v>158</v>
+      </c>
+      <c r="F229" s="5">
+        <v>451</v>
+      </c>
+      <c r="G229" s="5">
+        <v>565</v>
+      </c>
+      <c r="H229" s="108">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="I229" s="5"/>
+      <c r="J229" s="129">
+        <f t="shared" ref="J229:J230" si="8">F229*I229</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" s="131">
+        <v>39</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E230" s="5">
+        <v>85</v>
+      </c>
+      <c r="F230" s="5">
+        <v>213</v>
+      </c>
+      <c r="G230" s="5">
+        <v>269</v>
+      </c>
+      <c r="H230" s="108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I230" s="5"/>
+      <c r="J230" s="129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="5">
+        <v>76</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E231" s="5">
+        <v>13</v>
+      </c>
+      <c r="F231" s="5">
+        <v>20</v>
+      </c>
+      <c r="G231" s="5">
+        <v>25</v>
+      </c>
+      <c r="H231" s="108">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I231" s="5">
+        <v>10</v>
+      </c>
+      <c r="J231" s="129">
+        <f t="shared" ref="J231:J234" si="9">F231*I231</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="5">
+        <v>76</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E232" s="5">
+        <v>336</v>
+      </c>
+      <c r="F232" s="5">
+        <v>611</v>
+      </c>
+      <c r="G232" s="5">
+        <v>765</v>
+      </c>
+      <c r="H232" s="108">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="I232" s="5"/>
+      <c r="J232" s="129">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="5">
+        <v>76</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E233" s="5">
+        <v>158</v>
+      </c>
+      <c r="F233" s="5">
+        <v>451</v>
+      </c>
+      <c r="G233" s="5">
+        <v>565</v>
+      </c>
+      <c r="H233" s="108">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="I233" s="5">
+        <v>1</v>
+      </c>
+      <c r="J233" s="129">
+        <f t="shared" si="9"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B234" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" s="5">
+        <v>76</v>
+      </c>
+      <c r="D234" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E234" s="131">
+        <v>85</v>
+      </c>
+      <c r="F234" s="131">
+        <v>213</v>
+      </c>
+      <c r="G234" s="131">
+        <v>269</v>
+      </c>
+      <c r="H234" s="108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I234" s="131">
+        <v>2</v>
+      </c>
+      <c r="J234" s="132">
+        <f t="shared" si="9"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C226" s="154">
+      <c r="C235" s="5">
         <v>53</v>
       </c>
-      <c r="D226" s="154" t="s">
-        <v>243</v>
-      </c>
-      <c r="E226" s="154">
-        <v>70</v>
-      </c>
-      <c r="F226" s="154">
-        <v>88</v>
-      </c>
-      <c r="G226" s="154">
-        <v>105</v>
-      </c>
-      <c r="H226" s="155">
+      <c r="D235" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E235" s="5">
+        <v>13</v>
+      </c>
+      <c r="F235" s="5">
+        <v>20</v>
+      </c>
+      <c r="G235" s="5">
+        <v>25</v>
+      </c>
+      <c r="H235" s="108">
         <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I235" s="5"/>
+      <c r="J235" s="129">
+        <f t="shared" ref="J235:J238" si="10">F235*I235</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C236" s="5">
+        <v>53</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E236" s="5">
+        <v>336</v>
+      </c>
+      <c r="F236" s="5">
+        <v>611</v>
+      </c>
+      <c r="G236" s="5">
+        <v>765</v>
+      </c>
+      <c r="H236" s="108">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="I236" s="5"/>
+      <c r="J236" s="129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" s="5">
+        <v>53</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E237" s="5">
+        <v>158</v>
+      </c>
+      <c r="F237" s="5">
+        <v>451</v>
+      </c>
+      <c r="G237" s="5">
+        <v>565</v>
+      </c>
+      <c r="H237" s="108">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="I237" s="5"/>
+      <c r="J237" s="129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B238" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" s="5">
+        <v>53</v>
+      </c>
+      <c r="D238" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E238" s="131">
+        <v>85</v>
+      </c>
+      <c r="F238" s="131">
+        <v>213</v>
+      </c>
+      <c r="G238" s="131">
+        <v>269</v>
+      </c>
+      <c r="H238" s="108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I238" s="131"/>
+      <c r="J238" s="132">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" s="5">
+        <v>49</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E239" s="5">
+        <v>13</v>
+      </c>
+      <c r="F239" s="5">
+        <v>20</v>
+      </c>
+      <c r="G239" s="5">
+        <v>25</v>
+      </c>
+      <c r="H239" s="108">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I239" s="5"/>
+      <c r="J239" s="129">
+        <f t="shared" ref="J239:J242" si="11">F239*I239</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C240" s="5">
+        <v>49</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E240" s="5">
+        <v>336</v>
+      </c>
+      <c r="F240" s="5">
+        <v>611</v>
+      </c>
+      <c r="G240" s="5">
+        <v>765</v>
+      </c>
+      <c r="H240" s="108">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="I240" s="5"/>
+      <c r="J240" s="129">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C241" s="5">
+        <v>49</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E241" s="5">
+        <v>158</v>
+      </c>
+      <c r="F241" s="5">
+        <v>451</v>
+      </c>
+      <c r="G241" s="5">
+        <v>565</v>
+      </c>
+      <c r="H241" s="108">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="I241" s="5"/>
+      <c r="J241" s="129">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B242" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242" s="5">
+        <v>49</v>
+      </c>
+      <c r="D242" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E242" s="131">
+        <v>85</v>
+      </c>
+      <c r="F242" s="131">
+        <v>213</v>
+      </c>
+      <c r="G242" s="131">
+        <v>269</v>
+      </c>
+      <c r="H242" s="108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I242" s="131"/>
+      <c r="J242" s="132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="5">
+        <v>34</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E243" s="5">
+        <v>13</v>
+      </c>
+      <c r="F243" s="5">
+        <v>20</v>
+      </c>
+      <c r="G243" s="5">
+        <v>25</v>
+      </c>
+      <c r="H243" s="108">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I243" s="5"/>
+      <c r="J243" s="129">
+        <f t="shared" ref="J243:J246" si="12">F243*I243</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C244" s="5">
+        <v>34</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E244" s="5">
+        <v>336</v>
+      </c>
+      <c r="F244" s="5">
+        <v>611</v>
+      </c>
+      <c r="G244" s="5">
+        <v>765</v>
+      </c>
+      <c r="H244" s="108">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="I244" s="5"/>
+      <c r="J244" s="129">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="5">
+        <v>34</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E245" s="5">
+        <v>158</v>
+      </c>
+      <c r="F245" s="5">
+        <v>451</v>
+      </c>
+      <c r="G245" s="5">
+        <v>565</v>
+      </c>
+      <c r="H245" s="108">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="I245" s="5"/>
+      <c r="J245" s="129">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B246" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C246" s="5">
+        <v>34</v>
+      </c>
+      <c r="D246" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E246" s="131">
+        <v>85</v>
+      </c>
+      <c r="F246" s="131">
+        <v>213</v>
+      </c>
+      <c r="G246" s="131">
+        <v>269</v>
+      </c>
+      <c r="H246" s="108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I246" s="131"/>
+      <c r="J246" s="132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C247" s="5">
+        <v>117</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E247" s="5">
+        <v>13</v>
+      </c>
+      <c r="F247" s="5">
+        <v>20</v>
+      </c>
+      <c r="G247" s="5">
+        <v>25</v>
+      </c>
+      <c r="H247" s="108">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I247" s="5"/>
+      <c r="J247" s="129">
+        <f t="shared" ref="J247:J250" si="13">F247*I247</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C248" s="5">
+        <v>117</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E248" s="5">
+        <v>336</v>
+      </c>
+      <c r="F248" s="5">
+        <v>611</v>
+      </c>
+      <c r="G248" s="5">
+        <v>765</v>
+      </c>
+      <c r="H248" s="108">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="I248" s="5"/>
+      <c r="J248" s="129">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C249" s="5">
+        <v>117</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E249" s="5">
+        <v>158</v>
+      </c>
+      <c r="F249" s="5">
+        <v>451</v>
+      </c>
+      <c r="G249" s="5">
+        <v>565</v>
+      </c>
+      <c r="H249" s="108">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="I249" s="5"/>
+      <c r="J249" s="129">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B250" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C250" s="5">
+        <v>117</v>
+      </c>
+      <c r="D250" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E250" s="131">
+        <v>85</v>
+      </c>
+      <c r="F250" s="131">
+        <v>213</v>
+      </c>
+      <c r="G250" s="131">
+        <v>269</v>
+      </c>
+      <c r="H250" s="108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I250" s="131">
+        <v>2</v>
+      </c>
+      <c r="J250" s="132">
+        <f t="shared" si="13"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C251" s="5">
+        <v>21</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E251" s="5">
+        <v>13</v>
+      </c>
+      <c r="F251" s="5">
+        <v>20</v>
+      </c>
+      <c r="G251" s="5">
+        <v>25</v>
+      </c>
+      <c r="H251" s="108">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I251" s="5"/>
+      <c r="J251" s="129">
+        <f t="shared" ref="J251:J254" si="14">F251*I251</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C252" s="5">
+        <v>21</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E252" s="5">
+        <v>336</v>
+      </c>
+      <c r="F252" s="5">
+        <v>611</v>
+      </c>
+      <c r="G252" s="5">
+        <v>765</v>
+      </c>
+      <c r="H252" s="108">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="I252" s="5"/>
+      <c r="J252" s="129">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" s="5">
+        <v>21</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E253" s="5">
+        <v>158</v>
+      </c>
+      <c r="F253" s="5">
+        <v>451</v>
+      </c>
+      <c r="G253" s="5">
+        <v>565</v>
+      </c>
+      <c r="H253" s="108">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="I253" s="5"/>
+      <c r="J253" s="129">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B254" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" s="5">
+        <v>21</v>
+      </c>
+      <c r="D254" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E254" s="131">
+        <v>85</v>
+      </c>
+      <c r="F254" s="131">
+        <v>213</v>
+      </c>
+      <c r="G254" s="131">
+        <v>269</v>
+      </c>
+      <c r="H254" s="108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I254" s="131"/>
+      <c r="J254" s="132">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="5">
         <v>18</v>
       </c>
-      <c r="I226" s="154">
-        <v>1</v>
-      </c>
-      <c r="J226" s="156">
-        <f t="shared" si="7"/>
-        <v>88</v>
+      <c r="D255" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E255" s="5">
+        <v>13</v>
+      </c>
+      <c r="F255" s="5">
+        <v>20</v>
+      </c>
+      <c r="G255" s="5">
+        <v>25</v>
+      </c>
+      <c r="H255" s="108">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="I255" s="5"/>
+      <c r="J255" s="129">
+        <f t="shared" ref="J255:J258" si="15">F255*I255</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C256" s="5">
+        <v>18</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E256" s="5">
+        <v>336</v>
+      </c>
+      <c r="F256" s="5">
+        <v>611</v>
+      </c>
+      <c r="G256" s="5">
+        <v>765</v>
+      </c>
+      <c r="H256" s="108">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="I256" s="5"/>
+      <c r="J256" s="129">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C257" s="5">
+        <v>18</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E257" s="5">
+        <v>158</v>
+      </c>
+      <c r="F257" s="5">
+        <v>451</v>
+      </c>
+      <c r="G257" s="5">
+        <v>565</v>
+      </c>
+      <c r="H257" s="108">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="I257" s="5"/>
+      <c r="J257" s="129">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B258" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C258" s="5">
+        <v>18</v>
+      </c>
+      <c r="D258" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E258" s="131">
+        <v>85</v>
+      </c>
+      <c r="F258" s="131">
+        <v>213</v>
+      </c>
+      <c r="G258" s="131">
+        <v>269</v>
+      </c>
+      <c r="H258" s="108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I258" s="131"/>
+      <c r="J258" s="132">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C259" s="5">
+        <v>32</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E259" s="5">
+        <v>13</v>
+      </c>
+      <c r="F259" s="5">
+        <v>20</v>
+      </c>
+      <c r="G259" s="5">
+        <v>25</v>
+      </c>
+      <c r="H259" s="108">
+        <f t="shared" ref="H259:H262" si="16">F259-E259</f>
+        <v>7</v>
+      </c>
+      <c r="I259" s="5">
+        <v>2</v>
+      </c>
+      <c r="J259" s="129">
+        <f t="shared" ref="J259:J262" si="17">F259*I259</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C260" s="5">
+        <v>32</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E260" s="5">
+        <v>336</v>
+      </c>
+      <c r="F260" s="5">
+        <v>611</v>
+      </c>
+      <c r="G260" s="5">
+        <v>765</v>
+      </c>
+      <c r="H260" s="108">
+        <f t="shared" si="16"/>
+        <v>275</v>
+      </c>
+      <c r="I260" s="5">
+        <v>2</v>
+      </c>
+      <c r="J260" s="129">
+        <f t="shared" si="17"/>
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="127">
+        <v>44610</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C261" s="5">
+        <v>32</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E261" s="5">
+        <v>158</v>
+      </c>
+      <c r="F261" s="5">
+        <v>451</v>
+      </c>
+      <c r="G261" s="5">
+        <v>565</v>
+      </c>
+      <c r="H261" s="108">
+        <f t="shared" si="16"/>
+        <v>293</v>
+      </c>
+      <c r="I261" s="5">
+        <v>2</v>
+      </c>
+      <c r="J261" s="129">
+        <f t="shared" si="17"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="130">
+        <v>44610</v>
+      </c>
+      <c r="B262" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="C262" s="5">
+        <v>32</v>
+      </c>
+      <c r="D262" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E262" s="131">
+        <v>85</v>
+      </c>
+      <c r="F262" s="131">
+        <v>213</v>
+      </c>
+      <c r="G262" s="131">
+        <v>269</v>
+      </c>
+      <c r="H262" s="108">
+        <f t="shared" si="16"/>
+        <v>128</v>
+      </c>
+      <c r="I262" s="131"/>
+      <c r="J262" s="132">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -29996,10 +31629,10 @@
       <c r="F3" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="148" t="s">
         <v>190</v>
       </c>
     </row>
@@ -30020,8 +31653,8 @@
       <c r="F4" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
@@ -30106,10 +31739,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="120" t="s">
         <v>231</v>
       </c>
       <c r="C3"/>
@@ -30119,7 +31752,7 @@
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="120" t="s">
         <v>228</v>
       </c>
       <c r="B4" s="117">
@@ -30136,16 +31769,16 @@
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="122">
         <v>41</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="122">
         <v>40</v>
       </c>
-      <c r="D5" s="145">
+      <c r="D5" s="122">
         <v>41</v>
       </c>
       <c r="E5"/>
@@ -30153,16 +31786,16 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="122">
         <v>78</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="122">
         <v>76</v>
       </c>
-      <c r="D6" s="145">
+      <c r="D6" s="122">
         <v>78</v>
       </c>
       <c r="E6"/>
@@ -30170,16 +31803,16 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="122">
         <v>53</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="122">
         <v>53</v>
       </c>
-      <c r="D7" s="145">
+      <c r="D7" s="122">
         <v>53</v>
       </c>
       <c r="E7"/>
@@ -30187,16 +31820,16 @@
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="122">
         <v>21</v>
       </c>
-      <c r="C8" s="145">
+      <c r="C8" s="122">
         <v>21</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="122">
         <v>21</v>
       </c>
       <c r="E8"/>
@@ -30204,16 +31837,16 @@
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="145">
+      <c r="B9" s="122">
         <v>18</v>
       </c>
-      <c r="C9" s="145">
+      <c r="C9" s="122">
         <v>18</v>
       </c>
-      <c r="D9" s="145">
+      <c r="D9" s="122">
         <v>18</v>
       </c>
       <c r="E9"/>
@@ -30221,16 +31854,16 @@
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="146" t="s">
+      <c r="A10" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="145">
+      <c r="B10" s="122">
         <v>23</v>
       </c>
-      <c r="C10" s="145">
+      <c r="C10" s="122">
         <v>23</v>
       </c>
-      <c r="D10" s="145">
+      <c r="D10" s="122">
         <v>23</v>
       </c>
       <c r="E10"/>
@@ -30238,16 +31871,16 @@
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="145">
+      <c r="B11" s="122">
         <v>33</v>
       </c>
-      <c r="C11" s="145">
+      <c r="C11" s="122">
         <v>34</v>
       </c>
-      <c r="D11" s="145">
+      <c r="D11" s="122">
         <v>34</v>
       </c>
       <c r="E11"/>
@@ -30255,16 +31888,16 @@
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="145">
+      <c r="B12" s="122">
         <v>50</v>
       </c>
-      <c r="C12" s="145">
+      <c r="C12" s="122">
         <v>49</v>
       </c>
-      <c r="D12" s="145">
+      <c r="D12" s="122">
         <v>50</v>
       </c>
       <c r="E12"/>
@@ -30272,16 +31905,16 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="145">
+      <c r="B13" s="122">
         <v>32</v>
       </c>
-      <c r="C13" s="145">
+      <c r="C13" s="122">
         <v>32</v>
       </c>
-      <c r="D13" s="145">
+      <c r="D13" s="122">
         <v>32</v>
       </c>
       <c r="E13"/>
@@ -30289,34 +31922,34 @@
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="145">
+      <c r="B14" s="122">
         <v>99</v>
       </c>
-      <c r="C14" s="145">
-        <v>115</v>
-      </c>
-      <c r="D14" s="145">
-        <v>115</v>
+      <c r="C14" s="122">
+        <v>117</v>
+      </c>
+      <c r="D14" s="122">
+        <v>117</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="145">
+      <c r="B15" s="122">
         <v>99</v>
       </c>
-      <c r="C15" s="145">
-        <v>115</v>
-      </c>
-      <c r="D15" s="145">
-        <v>115</v>
+      <c r="C15" s="122">
+        <v>117</v>
+      </c>
+      <c r="D15" s="122">
+        <v>117</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -30380,7 +32013,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B27"/>
+  <dimension ref="A3:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -30394,7 +32027,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="120" t="s">
         <v>228</v>
       </c>
       <c r="B3" t="s">
@@ -30402,91 +32035,91 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="145">
-        <v>493</v>
+      <c r="A4" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="122">
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="145">
-        <v>528</v>
+      <c r="B5" s="122">
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="146" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="145">
-        <v>576</v>
+      <c r="A6" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="122">
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="145">
-        <v>585</v>
+      <c r="A7" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="122">
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="145">
-        <v>600</v>
+      <c r="A8" s="123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="122">
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="146" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="145">
-        <v>660</v>
+      <c r="A9" s="123" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="122">
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="146" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="145">
-        <v>660</v>
+      <c r="A10" s="123" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="122">
+        <v>852</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="145">
-        <v>720</v>
+      <c r="A11" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="122">
+        <v>1056</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="146" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="145">
-        <v>752</v>
+      <c r="A12" s="123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="122">
+        <v>1222</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="146" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="145">
-        <v>1056</v>
+      <c r="A13" s="123" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="122">
+        <v>1353</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="145">
-        <v>6630</v>
+      <c r="B14" s="122">
+        <v>8491</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -30540,6 +32173,22 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31855,7 +33504,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="150" t="s">
         <v>88</v>
       </c>
       <c r="B2" s="69" t="s">
@@ -31881,7 +33530,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="135"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="71" t="s">
         <v>59</v>
       </c>
@@ -31905,7 +33554,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="150" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="69" t="s">
@@ -31931,7 +33580,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="18" t="s">
         <v>65</v>
       </c>
@@ -31955,7 +33604,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="56" t="s">
         <v>66</v>
       </c>
@@ -31979,7 +33628,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="56" t="s">
         <v>67</v>
       </c>
@@ -32003,7 +33652,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135"/>
+      <c r="A8" s="151"/>
       <c r="B8" s="74" t="s">
         <v>68</v>
       </c>
@@ -32053,7 +33702,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="153" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="86" t="s">
@@ -32079,7 +33728,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="56" t="s">
         <v>73</v>
       </c>
@@ -32103,7 +33752,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="139"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="74" t="s">
         <v>74</v>
       </c>
@@ -32137,15 +33786,15 @@
       <c r="H13" s="85"/>
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="142"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="158"/>
       <c r="H14" s="59">
         <f>SUM(H2:H12)</f>
         <v>5880</v>
